--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P22_trail14 Features.xlsx
@@ -7031,7 +7031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7042,29 +7042,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7085,115 +7083,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -7210,72 +7198,66 @@
         <v>2.877280625453296e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.964855792929065</v>
+        <v>1.938528549376506e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>16.26668195016726</v>
+        <v>6.214054870509156e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.938528549376506e-07</v>
+        <v>-0.1086016572364605</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.214054870509156e-07</v>
+        <v>0.3377619700463371</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1086016572364605</v>
+        <v>0.1255787429593289</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3377619700463371</v>
+        <v>1.941223180322791</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1255787429593289</v>
+        <v>3.228537970727111</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.960327942185778</v>
+        <v>6.619069658975384</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>3.228537970727111</v>
+        <v>8.372878560351465e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6.619069658975384</v>
+        <v>53990185267.1636</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8.372878560351465e-19</v>
+        <v>2.229062451390942e-09</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>53990185267.1636</v>
+        <v>2440.643951139245</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>2.229062451390942e-09</v>
+        <v>7.458873269535576e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2440.643951139245</v>
+        <v>10.97837029947872</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>7.458873269535576e-05</v>
+        <v>1.161985101443434</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.97837029947872</v>
+        <v>0.008989778249114799</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.161985101443434</v>
+        <v>5.959944848849998</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.008989778249114799</v>
+        <v>0.9616829654683563</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5.959944848849998</v>
+        <v>0.8030718998841343</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9616829654683563</v>
+        <v>340</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.8030718998841343</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>9.032044670783382</v>
       </c>
     </row>
@@ -7290,72 +7272,66 @@
         <v>2.048503346321565e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>4.015373818698248</v>
+        <v>1.40177977739634e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>16.7829183436863</v>
+        <v>6.187594322652607e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.40177977739634e-07</v>
+        <v>-0.1083401368087085</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.187594322652607e-07</v>
+        <v>0.3478516736045944</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1083401368087085</v>
+        <v>0.1324159826638385</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3478516736045944</v>
+        <v>1.939999509220318</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1324159826638385</v>
+        <v>3.147902148577959</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.958732878569483</v>
+        <v>6.926375664544432</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>3.147902148577959</v>
+        <v>9.909382405418513e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>6.926375664544432</v>
+        <v>48237860604.60105</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>9.909382405418513e-19</v>
+        <v>2.505942287035042e-09</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>48237860604.60105</v>
+        <v>2305.805467408124</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.505942287035042e-09</v>
+        <v>6.265012472648739e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2305.805467408124</v>
+        <v>12.474052293137</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.265012472648739e-05</v>
+        <v>1.025546630214182</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.474052293137</v>
+        <v>0.009748483493025045</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.025546630214182</v>
+        <v>6.13066824594488</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.009748483493025045</v>
+        <v>0.9611891717478808</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.13066824594488</v>
+        <v>0.7696863840737493</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9611891717478808</v>
+        <v>315</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7696863840737493</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>315</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>9.885051172716036</v>
       </c>
     </row>
@@ -7370,72 +7346,66 @@
         <v>1.445577521778923e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>4.047842948797584</v>
+        <v>1.008770503909625e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>17.28503492811226</v>
+        <v>6.168932081221625e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.008770503909625e-07</v>
+        <v>-0.1073214819674425</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.168932081221625e-07</v>
+        <v>0.3613803782773442</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1073214819674425</v>
+        <v>0.1417663071115047</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3613803782773442</v>
+        <v>1.939170282434128</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1417663071115047</v>
+        <v>3.215325528369332</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.959707640817718</v>
+        <v>7.255581497530851</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.215325528369332</v>
+        <v>9.030550470695316e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.255581497530851</v>
+        <v>53332552476.5882</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.030550470695316e-19</v>
+        <v>2.265902659929497e-09</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>53332552476.5882</v>
+        <v>2568.614695508434</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>2.265902659929497e-09</v>
+        <v>6.360398013194077e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2568.614695508434</v>
+        <v>11.78341001084317</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.360398013194077e-05</v>
+        <v>1.082002878811846</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>11.78341001084317</v>
+        <v>0.00883133323071016</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.082002878811846</v>
+        <v>6.041890047767589</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00883133323071016</v>
+        <v>0.960284106629981</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>6.041890047767589</v>
+        <v>0.7955282822079973</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.960284106629981</v>
+        <v>322</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.7955282822079973</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>322</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>9.24326907727073</v>
       </c>
     </row>
@@ -7450,72 +7420,66 @@
         <v>1.011011772581212e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>4.00522552703115</v>
+        <v>7.210389155321527e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>17.44355634609672</v>
+        <v>6.15602339638969e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>7.210389155321527e-08</v>
+        <v>-0.1046974886432546</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.15602339638969e-07</v>
+        <v>0.3784930303598986</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1046974886432546</v>
+        <v>0.1538379821552463</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3784930303598986</v>
+        <v>1.94141870784629</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1538379821552463</v>
+        <v>3.374440697609928</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.962183404129268</v>
+        <v>5.990556627442112</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.374440697609928</v>
+        <v>8.164665934788951e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>5.990556627442112</v>
+        <v>57528043034.56151</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>8.164665934788951e-19</v>
+        <v>2.104091307422443e-09</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>57528043034.56151</v>
+        <v>2702.076379871963</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>2.104091307422443e-09</v>
+        <v>8.446264424451053e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2702.076379871963</v>
+        <v>9.751568860111721</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>8.446264424451053e-05</v>
+        <v>1.330971250790212</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.751568860111721</v>
+        <v>0.008031814272816521</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.330971250790212</v>
+        <v>5.636285092600692</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008031814272816521</v>
+        <v>0.9607561941123537</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>5.636285092600692</v>
+        <v>0.8119459123088252</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9607561941123537</v>
+        <v>354</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8119459123088252</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>354</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>7.547523282280617</v>
       </c>
     </row>
@@ -7530,72 +7494,66 @@
         <v>7.045773205539698e-09</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.747256291151831</v>
+        <v>5.107152405502195e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>16.35720030163369</v>
+        <v>6.147363557879159e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.107152405502195e-08</v>
+        <v>-0.09854093352785609</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.147363557879159e-07</v>
+        <v>0.3974166863833474</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.09854093352785609</v>
+        <v>0.1672316518856479</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3974166863833474</v>
+        <v>1.944366303682281</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1672316518856479</v>
+        <v>3.151952244407249</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.963185483224214</v>
+        <v>6.458349981307016</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>3.151952244407249</v>
+        <v>8.828211594098549e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.458349981307016</v>
+        <v>53266052698.25927</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.828211594098549e-19</v>
+        <v>2.276710381526778e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>53266052698.25927</v>
+        <v>2504.804083292384</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.276710381526778e-09</v>
+        <v>0.0001031028489459051</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2504.804083292384</v>
+        <v>9.182377544372091</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001031028489459051</v>
+        <v>1.459634630417543</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.182377544372091</v>
+        <v>0.008693225726464162</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.459634630417543</v>
+        <v>5.276611116063857</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008693225726464162</v>
+        <v>0.9585250622766365</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>5.276611116063857</v>
+        <v>0.8648379503465198</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9585250622766365</v>
+        <v>318</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.8648379503465198</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>318</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>6.562327392519565</v>
       </c>
     </row>
@@ -7610,72 +7568,66 @@
         <v>4.994351256625989e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.027512028598589</v>
+        <v>3.572458346810615e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>12.33400492108444</v>
+        <v>6.141833371992005e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.572458346810615e-08</v>
+        <v>-0.0856420293899713</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.141833371992005e-07</v>
+        <v>0.40929254393907</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.0856420293899713</v>
+        <v>0.1744121771879266</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.40929254393907</v>
+        <v>1.94680262634258</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1744121771879266</v>
+        <v>3.03971062015611</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.964986758925249</v>
+        <v>6.0198291487167</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.03971062015611</v>
+        <v>1.468522614924163e-18</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>6.0198291487167</v>
+        <v>31807476010.00521</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.468522614924163e-18</v>
+        <v>3.797290172984409e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>31807476010.00521</v>
+        <v>1485.727135861572</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.797290172984409e-09</v>
+        <v>0.0001293212608155753</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1485.727135861572</v>
+        <v>10.09528753780033</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001293212608155753</v>
+        <v>1.432913317471082</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.09528753780033</v>
+        <v>0.01317975437229807</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.432913317471082</v>
+        <v>4.859595932161959</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01317975437229807</v>
+        <v>0.9572458122715757</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>4.859595932161959</v>
+        <v>0.9565882183271481</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9572458122715757</v>
+        <v>281</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9565882183271481</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>281</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>5.544700812294463</v>
       </c>
     </row>
@@ -7690,72 +7642,66 @@
         <v>3.777089980811792e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1.814523322082036</v>
+        <v>2.454983129739651e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5.250628933108086</v>
+        <v>6.138579381588592e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.454983129739651e-08</v>
+        <v>-0.06216558022481108</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>6.138579381588592e-07</v>
+        <v>0.3931376852181491</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06216558022481108</v>
+        <v>0.1580119498648365</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3931376852181491</v>
+        <v>1.943829604290972</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1580119498648365</v>
+        <v>3.193922704954698</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.962797471468952</v>
+        <v>5.514056738553489</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.193922704954698</v>
+        <v>1.784220100571782e-18</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.514056738553489</v>
+        <v>25564006148.54757</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.784220100571782e-18</v>
+        <v>4.725718562274689e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>25564006148.54757</v>
+        <v>1166.020683863343</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.725718562274689e-09</v>
+        <v>0.0001385422547949483</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1166.020683863343</v>
+        <v>12.41883520542952</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001385422547949483</v>
+        <v>1.15335688569458</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.41883520542952</v>
+        <v>0.02136702114858659</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.15335688569458</v>
+        <v>4.558720051104288</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02136702114858659</v>
+        <v>0.9587060095230424</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>4.558720051104288</v>
+        <v>0.9295651474051275</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9587060095230424</v>
+        <v>232</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9295651474051275</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>232</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>4.897281319320069</v>
       </c>
     </row>
@@ -7770,72 +7716,66 @@
         <v>3.224299914940185e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.8642864477350272</v>
+        <v>1.643877975602479e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.257269300394996</v>
+        <v>6.136971871812887e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.643877975602479e-08</v>
+        <v>-0.02951054757786416</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>6.136971871812887e-07</v>
+        <v>0.3316365169379825</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.02951054757786416</v>
+        <v>0.1105590981332922</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3316365169379825</v>
+        <v>1.94484282665324</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1105590981332922</v>
+        <v>3.145907949860056</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.962603906342076</v>
+        <v>5.447513678964222</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.145907949860056</v>
+        <v>1.828075928316057e-18</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.447513678964222</v>
+        <v>24733822677.40523</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.828075928316057e-18</v>
+        <v>4.887647640844226e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>24733822677.40523</v>
+        <v>1118.347357243122</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.887647640844226e-09</v>
+        <v>0.0001331535903043424</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1118.347357243122</v>
+        <v>13.69424953875481</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001331535903043424</v>
+        <v>1.018112567553182</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>13.69424953875481</v>
+        <v>0.02497062173635567</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.018112567553182</v>
+        <v>4.249843083824176</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02497062173635567</v>
+        <v>0.9601824462605392</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>4.249843083824176</v>
+        <v>0.9518856175787704</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9601824462605392</v>
+        <v>192</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9518856175787704</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>192</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>4.051555195857773</v>
       </c>
     </row>
@@ -7850,72 +7790,66 @@
         <v>3.10458942956122e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.6598942054657605</v>
+        <v>1.097367626487376e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.5847168501769455</v>
+        <v>6.136556242090222e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.097367626487376e-08</v>
+        <v>0.001852337743827156</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>6.136556242090222e-07</v>
+        <v>0.245316313409087</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.001852337743827156</v>
+        <v>0.06002281710435328</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.245316313409087</v>
+        <v>1.947548670353412</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.06002281710435328</v>
+        <v>3.025591704293517</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.965164185689379</v>
+        <v>5.514769827055401</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.025591704293517</v>
+        <v>1.783758712473803e-18</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>5.514769827055401</v>
+        <v>25705748020.2489</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.783758712473803e-18</v>
+        <v>4.665213294138684e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>25705748020.2489</v>
+        <v>1178.681859310341</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>4.665213294138684e-09</v>
+        <v>0.0001224327037279739</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1178.681859310341</v>
+        <v>11.71628684328536</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001224327037279739</v>
+        <v>1.128889591751093</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.71628684328536</v>
+        <v>0.01680650587882784</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.128889591751093</v>
+        <v>4.152184440324479</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01680650587882784</v>
+        <v>0.9609991069190007</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.152184440324479</v>
+        <v>0.9583071030890562</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9609991069190007</v>
+        <v>232</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9583071030890562</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>232</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.074090033804067</v>
       </c>
     </row>
@@ -7930,72 +7864,66 @@
         <v>3.185968411588426e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.7143494924108644</v>
+        <v>1.119365728622531e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.4836823870663105</v>
+        <v>6.136995748472215e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.119365728622531e-08</v>
+        <v>0.02428025042208876</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>6.136995748472215e-07</v>
+        <v>0.1703461031605305</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02428025042208876</v>
+        <v>0.0295357683064151</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1703461031605305</v>
+        <v>1.938097168821615</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0295357683064151</v>
+        <v>3.13333152091885</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.959080139258277</v>
+        <v>5.564870433900568</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.13333152091885</v>
+        <v>1.751784884128956e-18</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>5.564870433900568</v>
+        <v>26050378717.85267</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.751784884128956e-18</v>
+        <v>4.627262172347743e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>26050378717.85267</v>
+        <v>1188.800166901496</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>4.627262172347743e-09</v>
+        <v>0.0001184155590919047</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1188.800166901496</v>
+        <v>9.068098281482962</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001184155590919047</v>
+        <v>1.353224562552364</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.068098281482962</v>
+        <v>0.009737359553259096</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.353224562552364</v>
+        <v>4.161227671117392</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.009737359553259096</v>
+        <v>0.962288950814489</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>4.161227671117392</v>
+        <v>0.939428171130211</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.962288950814489</v>
+        <v>252</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.939428171130211</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>252</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>2.673177389535194</v>
       </c>
     </row>
@@ -8010,72 +7938,66 @@
         <v>3.326023845072324e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7320061635966804</v>
+        <v>1.136733317993679e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.5221232996028013</v>
+        <v>6.138032141740865e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.136733317993679e-08</v>
+        <v>0.03797348342633</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>6.138032141740865e-07</v>
+        <v>0.1188060291111049</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.03797348342633</v>
+        <v>0.01552729667069524</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1188060291111049</v>
+        <v>1.932121330798926</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01552729667069524</v>
+        <v>3.258632904340585</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.953987199028979</v>
+        <v>5.45376139705597</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.258632904340585</v>
+        <v>1.823889914219292e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>5.45376139705597</v>
+        <v>25524774457.4994</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.823889914219292e-18</v>
+        <v>4.721924161787065e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>25524774457.4994</v>
+        <v>1188.290016218171</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.721924161787065e-09</v>
+        <v>0.000119450885104722</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1188.290016218171</v>
+        <v>8.042302372190708</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.000119450885104722</v>
+        <v>1.535015979107486</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.042302372190708</v>
+        <v>0.007725919295752719</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.535015979107486</v>
+        <v>4.215075379800876</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.007725919295752719</v>
+        <v>0.9610100609873615</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>4.215075379800876</v>
+        <v>0.9596176621998949</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9610100609873615</v>
+        <v>213</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9596176621998949</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>213</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>2.808865822484643</v>
       </c>
     </row>
@@ -8090,72 +8012,66 @@
         <v>3.463059535808246e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.703433356768169</v>
+        <v>1.14351451869259e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.6250818782015934</v>
+        <v>6.139467925771383e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.14351451869259e-08</v>
+        <v>0.04561870916859034</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>6.139467925771383e-07</v>
+        <v>0.08676521902132703</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.04561870916859034</v>
+        <v>0.009598321868672498</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.08676521902132703</v>
+        <v>1.927471689539693</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.009598321868672498</v>
+        <v>3.238005712684987</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.95515247311913</v>
+        <v>5.282542000061969</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>3.238005712684987</v>
+        <v>1.94403899245283e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.282542000061969</v>
+        <v>24413234059.96533</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.94403899245283e-18</v>
+        <v>4.951027734890824e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>24413234059.96533</v>
+        <v>1158.658898422105</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.951027734890824e-09</v>
+        <v>0.0001145694669400352</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1158.658898422105</v>
+        <v>9.407649390773331</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001145694669400352</v>
+        <v>1.274638107313055</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.407649390773331</v>
+        <v>0.01013984087116361</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.274638107313055</v>
+        <v>4.312459438253908</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01013984087116361</v>
+        <v>0.9614246068673533</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>4.312459438253908</v>
+        <v>0.9740565859068082</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9614246068673533</v>
+        <v>189</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.9740565859068082</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>3.283127612831782</v>
       </c>
     </row>
@@ -8170,72 +8086,66 @@
         <v>3.576122639217193e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6578819730604553</v>
+        <v>1.143514615762544e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.7314360236492279</v>
+        <v>6.141147107704833e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.143514615762544e-08</v>
+        <v>0.0491263501192211</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>6.141147107704833e-07</v>
+        <v>0.07028765205274241</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.0491263501192211</v>
+        <v>0.007350581791480944</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.07028765205274241</v>
+        <v>1.92551162839971</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.007350581791480944</v>
+        <v>3.075164561485644</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.953741227667142</v>
+        <v>5.253511625328299</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.075164561485644</v>
+        <v>1.965583481092391e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.253511625328299</v>
+        <v>24282694334.77063</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.965583481092391e-18</v>
+        <v>4.973551253669012e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>24282694334.77063</v>
+        <v>1159.004813951454</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.973551253669012e-09</v>
+        <v>0.0001182429576560192</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>1159.004813951454</v>
+        <v>11.81734843219951</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001182429576560192</v>
+        <v>1.076237811050228</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>11.81734843219951</v>
+        <v>0.01651259639782397</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.076237811050228</v>
+        <v>4.169741810818696</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01651259639782397</v>
+        <v>0.9613500212557897</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>4.169741810818696</v>
+        <v>0.9671989994368425</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9613500212557897</v>
+        <v>189</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.9671989994368425</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>189</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>3.337052358945829</v>
       </c>
     </row>
@@ -8250,72 +8160,66 @@
         <v>3.662587212578564e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6089570413528214</v>
+        <v>1.143514615762544e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.8338947347692325</v>
+        <v>6.14295204411817e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.143514615762544e-08</v>
+        <v>0.05022867203414782</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6.14295204411817e-07</v>
+        <v>0.06344895225246679</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.05022867203414782</v>
+        <v>0.006548135409513213</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.06344895225246679</v>
+        <v>1.924435023226046</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.006548135409513213</v>
+        <v>3.137508194577646</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.953009804999352</v>
+        <v>5.347507269437431</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>3.137508194577646</v>
+        <v>1.897090816314443e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.347507269437431</v>
+        <v>24596186614.70307</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.897090816314443e-18</v>
+        <v>4.904978254090964e-09</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>24596186614.70307</v>
+        <v>1147.687576547454</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>4.904978254090964e-09</v>
+        <v>0.0001142156556136627</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>1147.687576547454</v>
+        <v>11.13691798723474</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001142156556136627</v>
+        <v>1.132116381547353</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.13691798723474</v>
+        <v>0.01416627538596581</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.132116381547353</v>
+        <v>4.166073234597896</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01416627538596581</v>
+        <v>0.9603086636505386</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.166073234597896</v>
+        <v>0.9507113495405877</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9603086636505386</v>
+        <v>220</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.9507113495405877</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>220</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>2.916705818708757</v>
       </c>
     </row>
@@ -8330,72 +8234,66 @@
         <v>3.727308829063971e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5598582974893389</v>
+        <v>1.143514615762544e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.9321136648204518</v>
+        <v>6.144807209643684e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.143514615762544e-08</v>
+        <v>0.04992181612577071</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>6.144807209643684e-07</v>
+        <v>0.06138318011252641</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.04992181612577071</v>
+        <v>0.00626036874033742</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.06138318011252641</v>
+        <v>1.93020719660497</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.00626036874033742</v>
+        <v>2.984209887239027</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.959612782342593</v>
+        <v>5.632805712193606</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.984209887239027</v>
+        <v>1.709784381009129e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>5.632805712193606</v>
+        <v>27640654714.06779</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.709784381009129e-18</v>
+        <v>4.375369282642599e-09</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>27640654714.06779</v>
+        <v>1306.285171910052</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>4.375369282642599e-09</v>
+        <v>0.0001052156712303592</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>1306.285171910052</v>
+        <v>8.79388915383919</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001052156712303592</v>
+        <v>1.298549702243133</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.79388915383919</v>
+        <v>0.008136589469750521</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.298549702243133</v>
+        <v>4.334130862544768</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.008136589469750521</v>
+        <v>0.9607520175931704</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>4.334130862544768</v>
+        <v>0.9595148349468521</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9607520175931704</v>
+        <v>254</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9595148349468521</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>254</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>2.828514699431262</v>
       </c>
     </row>
@@ -8410,72 +8308,66 @@
         <v>3.778549269008695e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.5092511043727613</v>
+        <v>1.131479174537425e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.024283921976308</v>
+        <v>6.14665752050862e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.131479174537425e-08</v>
+        <v>0.04848406577201364</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>6.14665752050862e-07</v>
+        <v>0.06099002975826324</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.04848406577201364</v>
+        <v>0.006070484233363112</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.06099002975826324</v>
+        <v>1.930359443778306</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.006070484233363112</v>
+        <v>2.780096095257952</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.958194325228192</v>
+        <v>6.149806397559018</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.780096095257952</v>
+        <v>1.434392484351995e-18</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>6.149806397559018</v>
+        <v>32595228831.80959</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.434392484351995e-18</v>
+        <v>3.709232068571712e-09</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>32595228831.80959</v>
+        <v>1523.96877827034</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.709232068571712e-09</v>
+        <v>9.786338947412657e-05</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1523.96877827034</v>
+        <v>7.72938210086143</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>9.786338947412657e-05</v>
+        <v>1.377765206101307</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>7.72938210086143</v>
+        <v>0.005846686500648046</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.377765206101307</v>
+        <v>4.536945030223182</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.005846686500648046</v>
+        <v>0.9591417162839608</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.536945030223182</v>
+        <v>0.9544074863799673</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9591417162839608</v>
+        <v>282</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.9544074863799673</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>282</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>3.403091621236987</v>
       </c>
     </row>
@@ -8490,72 +8382,66 @@
         <v>3.823796043880396e-09</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.4548472095673494</v>
+        <v>1.099329936387966e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.108384881429388</v>
+        <v>6.148461315365655e-07</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.099329936387966e-08</v>
+        <v>0.0463755387483069</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>6.148461315365655e-07</v>
+        <v>0.06049481352562883</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.0463755387483069</v>
+        <v>0.005810073710742734</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.06049481352562883</v>
+        <v>1.934597636796916</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005810073710742734</v>
+        <v>3.120140335867017</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.959079242488835</v>
+        <v>6.073558018074645</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>3.120140335867017</v>
+        <v>1.118952442421008e-18</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.073558018074645</v>
+        <v>40333877370.00288</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.118952442421008e-18</v>
+        <v>2.981887694049144e-09</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>40333877370.00288</v>
+        <v>1820.336073978767</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.981887694049144e-09</v>
+        <v>9.642377900206787e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1820.336073978767</v>
+        <v>8.661729096730671</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>9.642377900206787e-05</v>
+        <v>1.367672635216987</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.661729096730671</v>
+        <v>0.007234247143843598</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.367672635216987</v>
+        <v>4.710661308243768</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007234247143843598</v>
+        <v>0.9598674753080976</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>4.710661308243768</v>
+        <v>0.9719002540382615</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9598674753080976</v>
+        <v>332</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.9719002540382615</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>332</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>4.460792823491913</v>
       </c>
     </row>
@@ -8570,72 +8456,66 @@
         <v>3.865773038740117e-09</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3968935475195983</v>
+        <v>1.095451655311246e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.18311913440855</v>
+        <v>6.150208045043035e-07</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.095451655311246e-08</v>
+        <v>0.04460879572784132</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6.150208045043035e-07</v>
+        <v>0.06005369739090555</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04460879572784132</v>
+        <v>0.005596453275359665</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.06005369739090555</v>
+        <v>1.939812047111682</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.005596453275359665</v>
+        <v>3.404283901453921</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.962555752426874</v>
+        <v>5.237544673531215</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>3.404283901453921</v>
+        <v>1.022379782109493e-18</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.237544673531215</v>
+        <v>43761951624.42726</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.022379782109493e-18</v>
+        <v>2.752611930788934e-09</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>43761951624.42726</v>
+        <v>1957.968118910094</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.752611930788934e-09</v>
+        <v>0.0001001474708048112</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>1957.968118910094</v>
+        <v>10.07629068288486</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001001474708048112</v>
+        <v>1.27791388151768</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.07629068288486</v>
+        <v>0.01016813634436808</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.27791388151768</v>
+        <v>4.801739162674486</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01016813634436808</v>
+        <v>0.9595048999220306</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>4.801739162674486</v>
+        <v>0.9718779700122832</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9595048999220306</v>
+        <v>359</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.9718779700122832</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>359</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>5.462842010301983</v>
       </c>
     </row>
@@ -8650,72 +8530,66 @@
         <v>3.903815331619524e-09</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3374250901082244</v>
+        <v>1.095451655311246e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.24737004554176</v>
+        <v>6.151919454164722e-07</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.095451655311246e-08</v>
+        <v>0.04362376029759964</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>6.151919454164722e-07</v>
+        <v>0.05963765316367026</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04362376029759964</v>
+        <v>0.005459852386791932</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05963765316367026</v>
+        <v>1.941875694487794</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.005459852386791932</v>
+        <v>3.081729211937259</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.966517160637669</v>
+        <v>5.123183651343995</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>3.081729211937259</v>
+        <v>1.080839077051731e-18</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.123183651343995</v>
+        <v>41582961937.91377</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.080839077051731e-18</v>
+        <v>2.896373826579783e-09</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>41582961937.91377</v>
+        <v>1868.925025390866</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.896373826579783e-09</v>
+        <v>8.442888843887928e-05</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>1868.925025390866</v>
+        <v>10.1512038168441</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>8.442888843887928e-05</v>
+        <v>1.208245842620239</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>10.1512038168441</v>
+        <v>0.008700138510982714</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.208245842620239</v>
+        <v>5.281073402862872</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.008700138510982714</v>
+        <v>0.9603774935032462</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>5.281073402862872</v>
+        <v>0.9658286817150903</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9603774935032462</v>
+        <v>318</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9658286817150903</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>318</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>6.68590564848395</v>
       </c>
     </row>
@@ -8730,72 +8604,66 @@
         <v>3.937926972789998e-09</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2780770317265883</v>
+        <v>1.095451655311246e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.30039543832044</v>
+        <v>6.153622809458403e-07</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.095451655311246e-08</v>
+        <v>0.04331159967564444</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>6.153622809458403e-07</v>
+        <v>0.0590966672096549</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.04331159967564444</v>
+        <v>0.005368490533801185</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.0590966672096549</v>
+        <v>1.940644403065565</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005368490533801185</v>
+        <v>3.487503802507811</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.966350742971534</v>
+        <v>5.108546604737024</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>3.487503802507811</v>
+        <v>1.087041606804983e-18</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>5.108546604737024</v>
+        <v>42212461202.7506</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.087041606804983e-18</v>
+        <v>2.855716604969433e-09</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>42212461202.7506</v>
+        <v>1936.990613250764</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.855716604969433e-09</v>
+        <v>4.948925781379525e-05</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>1936.990613250764</v>
+        <v>8.759370188468978</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>4.948925781379525e-05</v>
+        <v>1.226271891040026</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.759370188468978</v>
+        <v>0.003797140810822751</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.226271891040026</v>
+        <v>6.332135804941394</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.003797140810822751</v>
+        <v>0.9614674429691584</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>6.332135804941394</v>
+        <v>0.8399677142583482</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9614674429691584</v>
+        <v>336</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.8399677142583482</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>336</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>9.136349507653239</v>
       </c>
     </row>
@@ -8810,72 +8678,66 @@
         <v>3.968076017369544e-09</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.2195527888325161</v>
+        <v>1.095451655311246e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.342272097835164</v>
+        <v>6.155334074155686e-07</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>1.095451655311246e-08</v>
+        <v>0.04331377991789922</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>6.155334074155686e-07</v>
+        <v>0.05851003880497258</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.04331377991789922</v>
+        <v>0.005299673604696131</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05851003880497258</v>
+        <v>1.939469741252151</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005299673604696131</v>
+        <v>2.941220742539126</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.967611966516313</v>
+        <v>6.515258185557446</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.941220742539126</v>
+        <v>7.783375915947547e-19</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>6.515258185557446</v>
+        <v>59903769514.73292</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>7.783375915947547e-19</v>
+        <v>2.015100649164682e-09</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>59903769514.73292</v>
+        <v>2793.034560888723</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.015100649164682e-09</v>
+        <v>3.360473056814671e-05</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2793.034560888723</v>
+        <v>7.984687199504489</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>3.360473056814671e-05</v>
+        <v>1.42246410685101</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>7.984687199504489</v>
+        <v>0.002142477315502758</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.42246410685101</v>
+        <v>6.978525798310319</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.002142477315502758</v>
+        <v>0.9617350377864223</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>6.978525798310319</v>
+        <v>0.8518773122062377</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9617350377864223</v>
+        <v>377</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.8518773122062377</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>377</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>11.21279993851612</v>
       </c>
     </row>
@@ -8890,72 +8752,66 @@
         <v>3.99408021077177e-09</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1623932290610516</v>
+        <v>1.099834640007877e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.373257385248661</v>
+        <v>6.157067031290141e-07</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>1.099834640007877e-08</v>
+        <v>0.04382348102476358</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>6.157067031290141e-07</v>
+        <v>0.05778470979419329</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.04382348102476358</v>
+        <v>0.005259650199429654</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.05778470979419329</v>
+        <v>1.942379613280452</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005259650199429654</v>
+        <v>3.439585606664141</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.972193110913377</v>
+        <v>6.999969059772503</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>3.439585606664141</v>
+        <v>5.843897795989121e-19</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>6.999969059772503</v>
+        <v>80621918506.79744</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>5.843897795989121e-19</v>
+        <v>1.502475292986517e-09</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>80621918506.79744</v>
+        <v>3798.471472306942</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.502475292986517e-09</v>
+        <v>4.524217872457903e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>3798.471472306942</v>
+        <v>8.561368706015166</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>4.524217872457903e-05</v>
+        <v>1.278773872736419</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>8.561368706015166</v>
+        <v>0.0033161175176538</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.278773872736419</v>
+        <v>6.575988167299755</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.0033161175176538</v>
+        <v>0.9617870192848625</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.575988167299755</v>
+        <v>0.8314083017847146</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9617870192848625</v>
+        <v>397</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.8314083017847146</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>397</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>10.33086457360681</v>
       </c>
     </row>
@@ -8970,72 +8826,66 @@
         <v>4.016140144550113e-09</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1076643614962018</v>
+        <v>1.124867462619235e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.393446942485782</v>
+        <v>6.158842911370768e-07</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.124867462619235e-08</v>
+        <v>0.04496727793050521</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6.158842911370768e-07</v>
+        <v>0.05691062767174916</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.04496727793050521</v>
+        <v>0.005260687123987503</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.05691062767174916</v>
+        <v>1.944297534654121</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005260687123987503</v>
+        <v>3.524940963347091</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.973509054222474</v>
+        <v>7.408627928674557</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>3.524940963347091</v>
+        <v>6.534723248286489e-19</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>7.408627928674557</v>
+        <v>73351210972.76448</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>6.534723248286489e-19</v>
+        <v>1.653681261802267e-09</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>73351210972.76448</v>
+        <v>3515.942595294131</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.653681261802267e-09</v>
+        <v>5.256945016598826e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>3515.942595294131</v>
+        <v>9.816641132440775</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>5.256945016598826e-05</v>
+        <v>1.200234665706769</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.816641132440775</v>
+        <v>0.005065930929434826</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.200234665706769</v>
+        <v>6.266561346629684</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.005065930929434826</v>
+        <v>0.9606222335095919</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>6.266561346629684</v>
+        <v>0.8208103434759383</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9606222335095919</v>
+        <v>395</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.8208103434759383</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>395</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>10.01689158734072</v>
       </c>
     </row>
@@ -9050,72 +8900,66 @@
         <v>4.03552241886819e-09</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.05718510080212086</v>
+        <v>1.16204052360804e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.402675187188658</v>
+        <v>6.160687995359192e-07</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.16204052360804e-08</v>
+        <v>0.04675170066736571</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>6.160687995359192e-07</v>
+        <v>0.05616239506220921</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.04675170066736571</v>
+        <v>0.00533950465866831</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.05616239506220921</v>
+        <v>1.944466347331789</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.00533950465866831</v>
+        <v>2.951232107143842</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.96954934473429</v>
+        <v>7.170660395947187</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.951232107143842</v>
+        <v>6.97564641993078e-19</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>7.170660395947187</v>
+        <v>67837838454.42429</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>6.97564641993078e-19</v>
+        <v>1.779783814161328e-09</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>67837838454.42429</v>
+        <v>3210.173178165829</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.779783814161328e-09</v>
+        <v>4.389582333437885e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>3210.173178165829</v>
+        <v>10.15677051441141</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>4.389582333437885e-05</v>
+        <v>1.108288846307778</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>10.15677051441141</v>
+        <v>0.004528292576925743</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.108288846307778</v>
+        <v>6.442758334832367</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.004528292576925743</v>
+        <v>0.9596324055824903</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>6.442758334832367</v>
+        <v>0.8191980664727232</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9596324055824903</v>
+        <v>347</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.8191980664727232</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>347</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>10.90184053007592</v>
       </c>
     </row>
@@ -9130,72 +8974,66 @@
         <v>4.053879723885589e-09</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.01275710966444082</v>
+        <v>1.205366006034516e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.40081158602788</v>
+        <v>6.162618679658187e-07</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>1.205366006034516e-08</v>
+        <v>0.04872190844797735</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>6.162618679658187e-07</v>
+        <v>0.05566674473416241</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04872190844797735</v>
+        <v>0.00547211769613484</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.05566674473416241</v>
+        <v>1.952960382939402</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.00547211769613484</v>
+        <v>3.721316938373335</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.978091106202314</v>
+        <v>7.144882158893205</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>3.721316938373335</v>
+        <v>7.026072515641734e-19</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>7.144882158893205</v>
+        <v>67930331194.40818</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>7.026072515641734e-19</v>
+        <v>1.787015395272327e-09</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>67930331194.40818</v>
+        <v>3242.202167617135</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.787015395272327e-09</v>
+        <v>2.871567410931384e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>3242.202167617135</v>
+        <v>9.836624989725184</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>2.871567410931384e-05</v>
+        <v>1.18227016809299</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.836624989725184</v>
+        <v>0.002778505401249355</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.18227016809299</v>
+        <v>7.047152274895176</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.002778505401249355</v>
+        <v>0.9594266020430582</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>7.047152274895176</v>
+        <v>0.8162179248733219</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9594266020430582</v>
+        <v>343</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.8162179248733219</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>343</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>12.69725272318572</v>
       </c>
     </row>
@@ -9210,72 +9048,66 @@
         <v>4.07147470935942e-09</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02466217078320911</v>
+        <v>1.245855376790386e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.388678797275284</v>
+        <v>6.164636955796297e-07</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.245855376790386e-08</v>
+        <v>0.05057016494336732</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.164636955796297e-07</v>
+        <v>0.05498723721525465</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.05057016494336732</v>
+        <v>0.005580742031459322</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.05498723721525465</v>
+        <v>1.955011547792156</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.005580742031459322</v>
+        <v>3.075198364396743</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.980993300213076</v>
+        <v>7.179907258565887</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>3.075198364396743</v>
+        <v>6.957690391858984e-19</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>7.179907258565887</v>
+        <v>66987786737.22443</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>6.957690391858984e-19</v>
+        <v>1.811536410724386e-09</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>66987786737.22443</v>
+        <v>3122.168640934747</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.811536410724386e-09</v>
+        <v>2.530316868735053e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>3122.168640934747</v>
+        <v>8.368878064214947</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>2.530316868735053e-05</v>
+        <v>2.126372735743512</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>8.368878064214947</v>
+        <v>0.001772186366263631</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>2.126372735743512</v>
+        <v>7.463992792436693</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.001772186366263631</v>
+        <v>0.960434666059731</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>7.463992792436693</v>
+        <v>0.8211742765743388</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.960434666059731</v>
+        <v>342</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.8211742765743388</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>342</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>13.56884550145172</v>
       </c>
     </row>
@@ -9290,72 +9122,66 @@
         <v>4.085707606535957e-09</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.05582002445628877</v>
+        <v>1.276023376462126e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.369810190762945</v>
+        <v>6.166730009205451e-07</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.276023376462126e-08</v>
+        <v>0.0519604546826269</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>6.166730009205451e-07</v>
+        <v>0.05409834722807937</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.0519604546826269</v>
+        <v>0.005626597172863813</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.05409834722807937</v>
+        <v>1.959231724063956</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.005626597172863813</v>
+        <v>3.241168800057926</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.980537517962138</v>
+        <v>6.411985320998184</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>3.241168800057926</v>
+        <v>6.254265789499737e-19</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>6.411985320998184</v>
+        <v>72600664367.52177</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>6.254265789499737e-19</v>
+        <v>1.668881154154969e-09</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>72600664367.52177</v>
+        <v>3296.533728045454</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>1.668881154154969e-09</v>
+        <v>3.589057676460066e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>3296.533728045454</v>
+        <v>7.253810677770223</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>3.589057676460066e-05</v>
+        <v>1.90516960737325</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.253810677770223</v>
+        <v>0.001888482089999942</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.90516960737325</v>
+        <v>6.980474322692531</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.001888482089999942</v>
+        <v>0.959826453537536</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>6.980474322692531</v>
+        <v>0.8261580973997512</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.959826453537536</v>
+        <v>348</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.8261580973997512</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>348</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>11.59528212918594</v>
       </c>
     </row>
@@ -9370,72 +9196,66 @@
         <v>4.094713315013863e-09</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.08244390352553209</v>
+        <v>1.300215195601792e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.347851521490796</v>
+        <v>6.168876388979926e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1.300215195601792e-08</v>
+        <v>0.05291913152958479</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>6.168876388979926e-07</v>
+        <v>0.05346884763807664</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.05291913152958479</v>
+        <v>0.00565951752014349</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.05346884763807664</v>
+        <v>1.955259539003328</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.00565951752014349</v>
+        <v>3.599802430248007</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.97648908487924</v>
+        <v>6.86108234221105</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>3.599802430248007</v>
+        <v>5.462307054074257e-19</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>6.86108234221105</v>
+        <v>81782253026.64267</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.462307054074257e-19</v>
+        <v>1.482707652191819e-09</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>81782253026.64267</v>
+        <v>3653.374988413985</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.482707652191819e-09</v>
+        <v>5.337535060220268e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>3653.374988413985</v>
+        <v>9.085348611415522</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>5.337535060220268e-05</v>
+        <v>1.228507210120818</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.085348611415522</v>
+        <v>0.004405791422445694</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.228507210120818</v>
+        <v>6.175314160869146</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004405791422445694</v>
+        <v>0.95965684557096</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>6.175314160869146</v>
+        <v>0.841573900979065</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.95965684557096</v>
+        <v>364</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.841573900979065</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>364</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>9.21975789556133</v>
       </c>
     </row>
@@ -9450,72 +9270,66 @@
         <v>4.098190907749399e-09</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.1056705934418867</v>
+        <v>1.320196349441606e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.324703752648743</v>
+        <v>6.171060733012271e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.320196349441606e-08</v>
+        <v>0.05368652602867714</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>6.171060733012271e-07</v>
+        <v>0.05300375926718694</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.05368652602867714</v>
+        <v>0.00569186694777315</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.05300375926718694</v>
+        <v>1.954455232241479</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.00569186694777315</v>
+        <v>3.863225544555247</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.9775057127779</v>
+        <v>6.815418085833238</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>3.863225544555247</v>
+        <v>5.535748712940866e-19</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>6.815418085833238</v>
+        <v>81070601057.39526</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.535748712940866e-19</v>
+        <v>1.494602532778329e-09</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>81070601057.39526</v>
+        <v>3638.338931203851</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>1.494602532778329e-09</v>
+        <v>6.949340893995611e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>3638.338931203851</v>
+        <v>10.07708461252071</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>6.949340893995611e-05</v>
+        <v>1.160814327991694</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.07708461252071</v>
+        <v>0.007056891276454253</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.160814327991694</v>
+        <v>5.581518616297776</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.007056891276454253</v>
+        <v>0.9604722325005062</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>5.581518616297776</v>
+        <v>0.8380724587488477</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9604722325005062</v>
+        <v>358</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.8380724587488477</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>358</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>7.609896468420106</v>
       </c>
     </row>
@@ -9530,72 +9344,66 @@
         <v>4.09560377478624e-09</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.1256028708479664</v>
+        <v>1.340674281651917e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.302019674904804</v>
+        <v>6.173277529173312e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>1.340674281651917e-08</v>
+        <v>0.05455468582403339</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>6.173277529173312e-07</v>
+        <v>0.05263029990839756</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.05455468582403339</v>
+        <v>0.005746303212274892</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.05263029990839756</v>
+        <v>1.946847914873268</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.005746303212274892</v>
+        <v>4.037020209063963</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.970490783516136</v>
+        <v>6.697244663563062</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>4.037020209063963</v>
+        <v>5.73282972713167e-19</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>6.697244663563062</v>
+        <v>80616217078.22572</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.73282972713167e-19</v>
+        <v>1.501046523099571e-09</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>80616217078.22572</v>
+        <v>3725.751395724689</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>1.501046523099571e-09</v>
+        <v>7.100875088878105e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>3725.751395724689</v>
+        <v>10.01926418727862</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>7.100875088878105e-05</v>
+        <v>1.156117723410542</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>10.01926418727862</v>
+        <v>0.007128259958369206</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.156117723410542</v>
+        <v>5.503578964620345</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.007128259958369206</v>
+        <v>0.9605803861815774</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>5.503578964620345</v>
+        <v>0.818471542222567</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9605803861815774</v>
+        <v>340</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.818471542222567</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>340</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>7.285970250811555</v>
       </c>
     </row>
@@ -9610,72 +9418,66 @@
         <v>4.088215362980062e-09</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.140585965237826</v>
+        <v>1.369507060650871e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.279999124926098</v>
+        <v>6.1755342442285e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1.369507060650871e-08</v>
+        <v>0.05583007000929785</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>6.1755342442285e-07</v>
+        <v>0.05238055362008708</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.05583007000929785</v>
+        <v>0.005860615191908249</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.05238055362008708</v>
+        <v>1.949792666633012</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.005860615191908249</v>
+        <v>3.97101551113235</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.973787488920213</v>
+        <v>6.422675490665001</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>3.97101551113235</v>
+        <v>6.23346339307311e-19</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>6.422675490665001</v>
+        <v>74443280629.92564</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>6.23346339307311e-19</v>
+        <v>1.625946351215631e-09</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>74443280629.92564</v>
+        <v>3454.462009155925</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.625946351215631e-09</v>
+        <v>7.856440461708622e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>3454.462009155925</v>
+        <v>8.589151992016131</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>7.856440461708622e-05</v>
+        <v>1.418325560952389</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>8.589151992016131</v>
+        <v>0.00579597361351926</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.418325560952389</v>
+        <v>5.55193405052932</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.00579597361351926</v>
+        <v>0.9618235421162159</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>5.55193405052932</v>
+        <v>0.8557953009265339</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9618235421162159</v>
+        <v>312</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>0.8557953009265339</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>6.715703069003391</v>
       </c>
     </row>
@@ -9690,72 +9492,66 @@
         <v>4.078307463363028e-09</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.1470981393450815</v>
+        <v>1.412780780559596e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.258500992507194</v>
+        <v>6.177850691748539e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1.412780780559596e-08</v>
+        <v>0.05773658557983587</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>6.177850691748539e-07</v>
+        <v>0.05242507834494536</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.05773658557983587</v>
+        <v>0.006081264808884193</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.05242507834494536</v>
+        <v>1.947258442866598</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.006081264808884193</v>
+        <v>3.784711119773657</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.974138358439884</v>
+        <v>6.580969971098811</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>3.784711119773657</v>
+        <v>7.435244765439365e-19</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>6.580969971098811</v>
+        <v>62336119326.04115</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>7.435244765439365e-19</v>
+        <v>1.94631329296941e-09</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>62336119326.04115</v>
+        <v>2889.181293703783</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.94631329296941e-09</v>
+        <v>0.0001041163001959217</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>2889.181293703783</v>
+        <v>8.908576098059838</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001041163001959217</v>
+        <v>1.620643818767214</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.908576098059838</v>
+        <v>0.008262953622698316</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.620643818767214</v>
+        <v>5.262283760677682</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.008262953622698316</v>
+        <v>0.9616015294680142</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>5.262283760677682</v>
+        <v>0.8664755578807889</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9616015294680142</v>
+        <v>262</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.8664755578807889</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>262</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>5.877678363418692</v>
       </c>
     </row>
@@ -9770,72 +9566,66 @@
         <v>4.069925647197413e-09</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.1400327731010297</v>
+        <v>1.471872430734283e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.235568220654811</v>
+        <v>6.180252408727158e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.471872430734283e-08</v>
+        <v>0.06027868170168261</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>6.180252408727158e-07</v>
+        <v>0.05349333605404551</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.06027868170168261</v>
+        <v>0.006493522550090772</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.05349333605404551</v>
+        <v>1.943410014170699</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.006493522550090772</v>
+        <v>3.734479996959602</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.968940618399688</v>
+        <v>5.993197214291561</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>3.734479996959602</v>
+        <v>8.965158047672057e-19</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>5.993197214291561</v>
+        <v>52495919709.20663</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>8.965158047672057e-19</v>
+        <v>2.31075860445637e-09</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>52495919709.20663</v>
+        <v>2470.637607071147</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.31075860445637e-09</v>
+        <v>0.000108009535852497</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>2470.637607071147</v>
+        <v>10.41963000301877</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.000108009535852497</v>
+        <v>1.247717585039177</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>10.41963000301877</v>
+        <v>0.01172645375018727</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.247717585039177</v>
+        <v>4.999575311543365</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01172645375018727</v>
+        <v>0.9618263631026484</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>4.999575311543365</v>
+        <v>0.8357950355672843</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9618263631026484</v>
+        <v>224</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.8357950355672843</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>224</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>5.497975115745094</v>
       </c>
     </row>
@@ -9850,72 +9640,66 @@
         <v>4.069083053201003e-09</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.1138045986171848</v>
+        <v>1.538673511703332e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.204975201472894</v>
+        <v>6.182761490859457e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>1.538673511703332e-08</v>
+        <v>0.06302801474853233</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>6.182761490859457e-07</v>
+        <v>0.05546273345411474</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.06302801474853233</v>
+        <v>0.007046998706288873</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.05546273345411474</v>
+        <v>1.939432911436234</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.007046998706288873</v>
+        <v>3.704141278477166</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.965422782988435</v>
+        <v>5.901890633351765</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>3.704141278477166</v>
+        <v>9.244698954449882e-19</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>5.901890633351765</v>
+        <v>50586769915.28999</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>9.244698954449882e-19</v>
+        <v>2.3945788679829e-09</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>50586769915.28999</v>
+        <v>2365.738144835356</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.3945788679829e-09</v>
+        <v>0.0001114688673361672</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>2365.738144835356</v>
+        <v>11.96790438528513</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001114688673361672</v>
+        <v>1.04741771505474</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>11.96790438528513</v>
+        <v>0.01596576784001401</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.04741771505474</v>
+        <v>4.689265543708354</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01596576784001401</v>
+        <v>0.9614068704453083</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>4.689265543708354</v>
+        <v>0.9066202773425182</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9614068704453083</v>
+        <v>235</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.9066202773425182</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>235</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>5.312239150305171</v>
       </c>
     </row>
@@ -9930,72 +9714,66 @@
         <v>4.077669062270586e-09</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.06784107943083675</v>
+        <v>1.591008349977345e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.165256509702147</v>
+        <v>6.185373373079426e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>1.591008349977345e-08</v>
+        <v>0.06503146015906462</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>6.185373373079426e-07</v>
+        <v>0.05648610189539333</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.06503146015906462</v>
+        <v>0.00741919165710515</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.05648610189539333</v>
+        <v>1.933413961165271</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.00741919165710515</v>
+        <v>3.304175221426083</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.961947768830981</v>
+        <v>5.952727316477052</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>3.304175221426083</v>
+        <v>1.387990191457184e-18</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>5.952727316477052</v>
+        <v>32902485277.00555</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.387990191457184e-18</v>
+        <v>3.672487171426115e-09</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>32902485277.00555</v>
+        <v>1502.601451447259</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>3.672487171426115e-09</v>
+        <v>0.0001230252871583192</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>1502.601451447259</v>
+        <v>10.37234471750997</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001230252871583192</v>
+        <v>1.219064165569863</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.37234471750997</v>
+        <v>0.01323574132993425</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.219064165569863</v>
+        <v>4.544677114488732</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01323574132993425</v>
+        <v>0.9611242065570857</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>4.544677114488732</v>
+        <v>0.9751477347684303</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9611242065570857</v>
+        <v>200</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.9751477347684303</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>200</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>4.371094137630432</v>
       </c>
     </row>
@@ -10010,72 +9788,66 @@
         <v>4.09086568998396e-09</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.01118260889259996</v>
+        <v>1.608473204779885e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.128950944141434</v>
+        <v>6.188044984960218e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>1.608473204779885e-08</v>
+        <v>0.06553100043854761</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>6.188044984960218e-07</v>
+        <v>0.05641477085995975</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.06553100043854761</v>
+        <v>0.007476948554287636</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.05641477085995975</v>
+        <v>1.931752363251633</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.007476948554287636</v>
+        <v>3.325734070522825</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.958302048338106</v>
+        <v>5.094791214310721</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>3.325734070522825</v>
+        <v>1.907235720482906e-18</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>5.094791214310721</v>
+        <v>23464999747.09542</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.907235720482906e-18</v>
+        <v>5.138609024700094e-09</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>23464999747.09542</v>
+        <v>1050.135837603626</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.138609024700094e-09</v>
+        <v>0.0001524331636652392</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>1050.135837603626</v>
+        <v>9.19045463028676</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001524331636652392</v>
+        <v>1.547763540709415</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.19045463028676</v>
+        <v>0.01287518429280488</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.547763540709415</v>
+        <v>4.128019476276676</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01287518429280488</v>
+        <v>0.9607323714603573</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>4.128019476276676</v>
+        <v>0.9873543161137722</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9607323714603573</v>
+        <v>159</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>0.9873543161137722</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>159</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>3.102416623779597</v>
       </c>
     </row>
@@ -10090,72 +9862,66 @@
         <v>4.104186813620899e-09</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.04245515495225793</v>
+        <v>1.587007275884463e-08</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-1.107995205208916</v>
+        <v>6.190713340011438e-07</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>1.587007275884463e-08</v>
+        <v>0.06444721980091668</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>6.190713340011438e-07</v>
+        <v>0.05622540344617757</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.06444721980091668</v>
+        <v>0.007314339052276371</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.05622540344617757</v>
+        <v>1.925838370631359</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.007314339052276371</v>
+        <v>3.284065301140612</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.958645153879815</v>
+        <v>4.85230234209743</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>3.284065301140612</v>
+        <v>2.102623177866933e-18</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.85230234209743</v>
+        <v>20886912106.86768</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.102623177866933e-18</v>
+        <v>5.742316905121078e-09</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>20886912106.86768</v>
+        <v>917.2969001571876</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>5.742316905121078e-09</v>
+        <v>0.0001504300105096421</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>917.2969001571876</v>
+        <v>9.561541332202227</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001504300105096421</v>
+        <v>1.360794350760532</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>9.561541332202227</v>
+        <v>0.01375277377917389</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.360794350760532</v>
+        <v>3.814312359610868</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01375277377917389</v>
+        <v>0.9593006662504664</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.814312359610868</v>
+        <v>0.9822663045053684</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9593006662504664</v>
+        <v>141</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>0.9822663045053684</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>141</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>2.381535980927751</v>
       </c>
     </row>
@@ -10170,72 +9936,66 @@
         <v>4.11821323168394e-09</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.08063882924768623</v>
+        <v>1.529786986700883e-08</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-1.100667914013594</v>
+        <v>6.193314040281249e-07</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1.529786986700883e-08</v>
+        <v>0.06187358631019744</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>6.193314040281249e-07</v>
+        <v>0.0556030692414398</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.06187358631019744</v>
+        <v>0.006918815184161245</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.0556030692414398</v>
+        <v>1.921129413311303</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.006918815184161245</v>
+        <v>2.922287629396482</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.954697488639797</v>
+        <v>4.92196334851163</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.922287629396482</v>
+        <v>2.043527110462956e-18</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>4.92196334851163</v>
+        <v>21641994744.57919</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>2.043527110462956e-18</v>
+        <v>5.535085256247911e-09</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>21641994744.57919</v>
+        <v>957.1389241760742</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>5.535085256247911e-09</v>
+        <v>0.0001467262557633449</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>957.1389241760742</v>
+        <v>10.61314005935702</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001467262557633449</v>
+        <v>1.135135810940546</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>10.61314005935702</v>
+        <v>0.01652706085574618</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.135135810940546</v>
+        <v>3.529268338238098</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01652706085574618</v>
+        <v>0.958812331501417</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.529268338238098</v>
+        <v>0.9842322304722823</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.958812331501417</v>
+        <v>137</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>0.9842322304722823</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>137</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>2.046690678736355</v>
       </c>
     </row>
@@ -10250,72 +10010,66 @@
         <v>4.134363708968388e-09</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.09717666290912329</v>
+        <v>1.467325034214784e-08</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-1.100914213893947</v>
+        <v>6.195803277238502e-07</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>1.467325034214784e-08</v>
+        <v>0.05885706840672063</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>6.195803277238502e-07</v>
+        <v>0.05498472257888397</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.05885706840672063</v>
+        <v>0.006486794517555133</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.05498472257888397</v>
+        <v>1.919118410681034</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.006486794517555133</v>
+        <v>2.992545288973324</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.953312255543162</v>
+        <v>5.046204237736811</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.992545288973324</v>
+        <v>1.944139868800763e-18</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>5.046204237736811</v>
+        <v>22936230639.34199</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1.944139868800763e-18</v>
+        <v>5.217564599734602e-09</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>22936230639.34199</v>
+        <v>1022.75497490404</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>5.217564599734602e-09</v>
+        <v>0.0001491422610924139</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>1022.75497490404</v>
+        <v>11.050034510368</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001491422610924139</v>
+        <v>1.097335942737201</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>11.050034510368</v>
+        <v>0.01821075668290446</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.097335942737201</v>
+        <v>3.377526639525215</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01821075668290446</v>
+        <v>0.9596874059379534</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.377526639525215</v>
+        <v>0.9715103737513937</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9596874059379534</v>
+        <v>168</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>0.9715103737513937</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>168</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>1.993207736379855</v>
       </c>
     </row>
@@ -10330,72 +10084,66 @@
         <v>4.149295386699733e-09</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.09645418562685722</v>
+        <v>1.423388265243887e-08</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-1.107559866070887</v>
+        <v>6.198191491731501e-07</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>1.423388265243887e-08</v>
+        <v>0.05661351314773931</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>6.198191491731501e-07</v>
+        <v>0.05521934626816426</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.05661351314773931</v>
+        <v>0.006254219943434502</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.05521934626816426</v>
+        <v>1.91312218940654</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.006254219943434502</v>
+        <v>3.253135614084465</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.948364776654024</v>
+        <v>5.071621714990103</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>3.253135614084465</v>
+        <v>1.924701785044852e-18</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>5.071621714990103</v>
+        <v>22920668013.93779</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1.924701785044852e-18</v>
+        <v>5.232146674543949e-09</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>22920668013.93779</v>
+        <v>1011.155598424102</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>5.232146674543949e-09</v>
+        <v>0.0001517379116500777</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>1011.155598424102</v>
+        <v>9.760812771300731</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001517379116500777</v>
+        <v>1.252460617415307</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>9.760812771300731</v>
+        <v>0.01445659675988701</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.252460617415307</v>
+        <v>3.586180231235918</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01445659675988701</v>
+        <v>0.9601635202700964</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>3.586180231235918</v>
+        <v>0.9766671677330251</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9601635202700964</v>
+        <v>180</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>0.9766671677330251</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>180</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>1.986178717704763</v>
       </c>
     </row>
@@ -10410,72 +10158,66 @@
         <v>4.158990290133828e-09</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.08532966702748264</v>
+        <v>1.394977889767157e-08</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-1.119337731525927</v>
+        <v>6.200511217032242e-07</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>1.394977889767157e-08</v>
+        <v>0.0551481140452151</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6.200511217032242e-07</v>
+        <v>0.05573959927312376</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.0551481140452151</v>
+        <v>0.00614841046204585</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.05573959927312376</v>
+        <v>1.918817463979162</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.00614841046204585</v>
+        <v>3.213229931022422</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.95027652271336</v>
+        <v>5.09188754757874</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>3.213229931022422</v>
+        <v>1.909411556412208e-18</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>5.09188754757874</v>
+        <v>23251439728.28425</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1.909411556412208e-18</v>
+        <v>5.160764017343941e-09</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>23251439728.28425</v>
+        <v>1032.284118493754</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>5.160764017343941e-09</v>
+        <v>0.0001698797944890597</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>1032.284118493754</v>
+        <v>9.060262992545738</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001698797944890597</v>
+        <v>1.545473346697731</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.060262992545738</v>
+        <v>0.01394515466007948</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.545473346697731</v>
+        <v>3.642598398064917</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.01394515466007948</v>
+        <v>0.9604600869394815</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.642598398064917</v>
+        <v>0.9711873816774392</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9604600869394815</v>
+        <v>225</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>0.9711873816774392</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>225</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>2.041343970810229</v>
       </c>
     </row>
@@ -10490,72 +10232,66 @@
         <v>4.161069420905568e-09</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.06818835065344366</v>
+        <v>1.37561282121543e-08</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-1.134526254191548</v>
+        <v>6.202784751487061e-07</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>1.37561282121543e-08</v>
+        <v>0.05419086591902759</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>6.202784751487061e-07</v>
+        <v>0.05630785307190451</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.05419086591902759</v>
+        <v>0.006107478807931267</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.05630785307190451</v>
+        <v>1.914075302774749</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.006107478807931267</v>
+        <v>3.318753200841128</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.945786704332818</v>
+        <v>5.115276693845633</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>3.318753200841128</v>
+        <v>1.891990248420548e-18</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>5.115276693845633</v>
+        <v>23727489962.62311</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1.891990248420548e-18</v>
+        <v>5.048021082852338e-09</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>23727489962.62311</v>
+        <v>1065.178741542136</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>5.048021082852338e-09</v>
+        <v>0.0001588507267424938</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>1065.178741542136</v>
+        <v>9.732030926266949</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001588507267424938</v>
+        <v>1.320023852477877</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>9.732030926266949</v>
+        <v>0.01504513769367295</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.320023852477877</v>
+        <v>3.609630713705692</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.01504513769367295</v>
+        <v>0.9609545806113982</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.609630713705692</v>
+        <v>0.9485328282122335</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9609545806113982</v>
+        <v>255</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>0.9485328282122335</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>255</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>2.087631791484672</v>
       </c>
     </row>
@@ -10932,7 +10668,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.340096665828428</v>
+        <v>1.315554712732536</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.361410652449852</v>
@@ -11021,7 +10757,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.342083894720805</v>
+        <v>1.318674889765941</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.259076658205661</v>
@@ -11110,7 +10846,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.351047155965329</v>
+        <v>1.325244240814787</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.178651051450936</v>
@@ -11199,7 +10935,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.37621022320109</v>
+        <v>1.347418406067977</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.397949246662423</v>
@@ -11288,7 +11024,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.379547964504432</v>
+        <v>1.348922290091002</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.400966649161464</v>
@@ -11377,7 +11113,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.395968561755914</v>
+        <v>1.359908667714742</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.198278567175895</v>
@@ -11466,7 +11202,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.367421519555496</v>
+        <v>1.340849139609371</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.334106043322411</v>
@@ -11555,7 +11291,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.370816212767292</v>
+        <v>1.343713347915464</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.145658689262862</v>
@@ -11644,7 +11380,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.402897765627433</v>
+        <v>1.371058626708578</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.511668531945856</v>
@@ -11733,7 +11469,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.398288227130298</v>
+        <v>1.364163659776746</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.419317200174604</v>
@@ -11822,7 +11558,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.394626350704766</v>
+        <v>1.362469908289762</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.479602992369927</v>
@@ -11911,7 +11647,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.422538527110967</v>
+        <v>1.388542279773851</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.336129283471497</v>
@@ -12000,7 +11736,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.441054079729825</v>
+        <v>1.407082465761371</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.31950209753772</v>
@@ -12089,7 +11825,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.432724200812671</v>
+        <v>1.405220736951113</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.359299367417713</v>
@@ -12178,7 +11914,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.441738454635431</v>
+        <v>1.413583037601362</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.364383875177336</v>
@@ -12267,7 +12003,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.457406746411545</v>
+        <v>1.416280454910872</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.21371133329998</v>
@@ -12356,7 +12092,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.456875197751385</v>
+        <v>1.423679423608428</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.447639800079545</v>
@@ -12445,7 +12181,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.453528615100694</v>
+        <v>1.420744992839125</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.435746156435522</v>
@@ -12534,7 +12270,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.433919787408221</v>
+        <v>1.404345027303822</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.560162468746506</v>
@@ -12623,7 +12359,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.4320218777177</v>
+        <v>1.4002514734468</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.500254505312467</v>
@@ -12712,7 +12448,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.443886316800479</v>
+        <v>1.413146861494418</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.350035965175511</v>
@@ -12801,7 +12537,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.465810131726271</v>
+        <v>1.427082996897442</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.575482715519165</v>
@@ -12890,7 +12626,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.452666638153961</v>
+        <v>1.41922563635111</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.519506078274409</v>
@@ -12979,7 +12715,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.431667160058941</v>
+        <v>1.408764907551939</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.371682459449449</v>
@@ -13068,7 +12804,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.435074455725933</v>
+        <v>1.418238528848905</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.439876339415513</v>
@@ -13157,7 +12893,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.433933954429856</v>
+        <v>1.422547103572943</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.379821894798943</v>
@@ -13246,7 +12982,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.429094702668526</v>
+        <v>1.415807786839742</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.49915578212012</v>
@@ -13335,7 +13071,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.412367317983814</v>
+        <v>1.395638871255924</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.434212453190475</v>
@@ -13424,7 +13160,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.420330292613527</v>
+        <v>1.400612371358005</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.347585197456661</v>
@@ -13513,7 +13249,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.400672912887696</v>
+        <v>1.37754323287845</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.364928792309059</v>
@@ -13602,7 +13338,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.403575556034847</v>
+        <v>1.383938243188069</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.259339225291735</v>
@@ -13691,7 +13427,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.404832074501474</v>
+        <v>1.383922899793038</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.348307067399965</v>
@@ -13780,7 +13516,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.399450131842648</v>
+        <v>1.379528314342648</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.38438143546919</v>
@@ -13869,7 +13605,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.40557332718928</v>
+        <v>1.377349196150047</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.424058481052933</v>
@@ -13958,7 +13694,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.432000895833628</v>
+        <v>1.395080828469441</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.390672588924275</v>
@@ -14047,7 +13783,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.436122909933223</v>
+        <v>1.39661828236804</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.410929474060473</v>
@@ -14136,7 +13872,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.449403825689834</v>
+        <v>1.411704840018934</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.517583373394486</v>
@@ -14225,7 +13961,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.484505693029733</v>
+        <v>1.439983275259351</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.367092751651228</v>
@@ -14314,7 +14050,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.511868000207962</v>
+        <v>1.460091213944215</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.3839443262826</v>
@@ -14403,7 +14139,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.519421077639864</v>
+        <v>1.465830153424508</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.341983438992819</v>
@@ -14492,7 +14228,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.551445623597528</v>
+        <v>1.490857885356245</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.28522423673359</v>
@@ -14581,7 +14317,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.554943730099841</v>
+        <v>1.501227321367156</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.435796521018922</v>
@@ -14670,7 +14406,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.564205644376259</v>
+        <v>1.512157301371839</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.423305481969785</v>
@@ -14759,7 +14495,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569939607057273</v>
+        <v>1.523736059572778</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.426666325402374</v>
@@ -14848,7 +14584,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.591319765216002</v>
+        <v>1.543841727209012</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.065078990928373</v>
@@ -14937,7 +14673,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.556728664057037</v>
+        <v>1.525422664038167</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.228206214735852</v>
@@ -15026,7 +14762,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.547234554407077</v>
+        <v>1.518964968966796</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.218508666694094</v>
@@ -15115,7 +14851,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561108033305402</v>
+        <v>1.531884906464147</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.198098377168745</v>
@@ -15204,7 +14940,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585385513133266</v>
+        <v>1.559733333105965</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.172343794957009</v>
@@ -15293,7 +15029,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.593013280935261</v>
+        <v>1.577193565695048</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.28390913988695</v>
@@ -15382,7 +15118,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.595817680363259</v>
+        <v>1.587300951945161</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.214425842799141</v>
@@ -15471,7 +15207,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.551799078154634</v>
+        <v>1.543324600207979</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.170837572727124</v>
@@ -15560,7 +15296,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.547622922654928</v>
+        <v>1.541751421810294</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.217281920748148</v>
@@ -15649,7 +15385,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553641831942749</v>
+        <v>1.550926498478009</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.222557395308994</v>
@@ -15738,7 +15474,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.548606338500044</v>
+        <v>1.54499002134193</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.248621702763519</v>
@@ -15827,7 +15563,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.539780322394956</v>
+        <v>1.533425474911102</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.157998525322375</v>
@@ -15916,7 +15652,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.541327242017074</v>
+        <v>1.523131514293095</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.185864774535904</v>
@@ -16005,7 +15741,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.52429326185198</v>
+        <v>1.504257910771826</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.20276047859695</v>
@@ -16094,7 +15830,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.503988530118558</v>
+        <v>1.483428767978951</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.244282838056682</v>
@@ -16183,7 +15919,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.554611191986923</v>
+        <v>1.518074849731478</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.389035592970618</v>
@@ -16272,7 +16008,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.559436539649547</v>
+        <v>1.513295346934499</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.270088191214607</v>
@@ -16361,7 +16097,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.570102918220007</v>
+        <v>1.522481785977246</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.275164490841432</v>
@@ -16450,7 +16186,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.567745105265671</v>
+        <v>1.523125416848086</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.263793612076505</v>
@@ -16539,7 +16275,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.530236041172443</v>
+        <v>1.490114167679977</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.260194042220985</v>
@@ -16628,7 +16364,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.500998089978416</v>
+        <v>1.459810715944043</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.327556950448958</v>
@@ -16717,7 +16453,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.463586030927992</v>
+        <v>1.425940354792707</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.255613871652433</v>
@@ -16806,7 +16542,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.494063011295217</v>
+        <v>1.457150048698208</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.417633186395195</v>
@@ -16895,7 +16631,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.468052388602436</v>
+        <v>1.434806373050413</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.408582424877367</v>
@@ -16984,7 +16720,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.456392479285861</v>
+        <v>1.422644340090679</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.381947935936435</v>
@@ -17073,7 +16809,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.453925729113511</v>
+        <v>1.417732998972794</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.374471189776136</v>
@@ -17162,7 +16898,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.45817915865886</v>
+        <v>1.424729341445105</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.447651968049704</v>
@@ -17251,7 +16987,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.467067154509491</v>
+        <v>1.438724655518729</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.493726049771288</v>
@@ -17340,7 +17076,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.493517530915829</v>
+        <v>1.466255696995451</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.1591932843928</v>
@@ -17429,7 +17165,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.515475215228382</v>
+        <v>1.488017318792137</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.380252648963006</v>
@@ -17518,7 +17254,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.512324045970735</v>
+        <v>1.489104323990757</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.474120930439612</v>
@@ -17607,7 +17343,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.51870073149308</v>
+        <v>1.498459573777986</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.415190033046591</v>
@@ -17696,7 +17432,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.489194722985334</v>
+        <v>1.473592783159138</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.456636258733842</v>
@@ -17785,7 +17521,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.471039082329661</v>
+        <v>1.458000065235307</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.544558690582237</v>
@@ -17874,7 +17610,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.488121246515758</v>
+        <v>1.46535262228572</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.481301259054711</v>
@@ -17963,7 +17699,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.521086903351761</v>
+        <v>1.490558409462703</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.164192338604331</v>
@@ -18052,7 +17788,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.565122642121907</v>
+        <v>1.530486901401418</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.536897349761411</v>
@@ -18141,7 +17877,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.54865976339354</v>
+        <v>1.510729361230341</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.550197018611581</v>
@@ -18230,7 +17966,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.573547341526695</v>
+        <v>1.530161692669785</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.621796029547826</v>
@@ -18319,7 +18055,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.585995795990805</v>
+        <v>1.538637938981664</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.445991707780281</v>
@@ -18408,7 +18144,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.594214430897099</v>
+        <v>1.548250006545125</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.700579029352105</v>
@@ -18497,7 +18233,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.584712238623901</v>
+        <v>1.531476860770148</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.479336596419509</v>
@@ -18586,7 +18322,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.524547234721379</v>
+        <v>1.482507786076801</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.281307510208201</v>
@@ -18872,7 +18608,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.278263372944774</v>
+        <v>1.24875734646806</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.232698897138585</v>
@@ -18961,7 +18697,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.288221140509586</v>
+        <v>1.261441980439336</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.104051493274609</v>
@@ -19050,7 +18786,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.293161104229159</v>
+        <v>1.265412942431495</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.172199845816884</v>
@@ -19139,7 +18875,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.310236188722504</v>
+        <v>1.27947519339394</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.141961660314081</v>
@@ -19228,7 +18964,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.326865687639057</v>
+        <v>1.2973184778483</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.167874196217726</v>
@@ -19317,7 +19053,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.317676564563198</v>
+        <v>1.284190713692929</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.116426848094013</v>
@@ -19406,7 +19142,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.313748343464139</v>
+        <v>1.287755416799951</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.117898431150567</v>
@@ -19495,7 +19231,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.350098598311585</v>
+        <v>1.319561538313447</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.883919173629073</v>
@@ -19584,7 +19320,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.339064601004383</v>
+        <v>1.315498704342958</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.168264591012741</v>
@@ -19673,7 +19409,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.308494691188577</v>
+        <v>1.281822244337075</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.193657912426684</v>
@@ -19762,7 +19498,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.29686813017332</v>
+        <v>1.280393067463972</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.15800579669487</v>
@@ -19851,7 +19587,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.300507943869681</v>
+        <v>1.285781666019242</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.108987638806552</v>
@@ -19940,7 +19676,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.302445523237553</v>
+        <v>1.285490143911809</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.133660885164428</v>
@@ -20029,7 +19765,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.300413618267602</v>
+        <v>1.284806083718223</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.170191460021415</v>
@@ -20118,7 +19854,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.298297617478621</v>
+        <v>1.281780866655624</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.204007083402792</v>
@@ -20207,7 +19943,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.301642772082928</v>
+        <v>1.285790154771966</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.102645757412055</v>
@@ -20296,7 +20032,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.298498213046183</v>
+        <v>1.284561146124092</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.194432523402662</v>
@@ -20385,7 +20121,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.288810763157331</v>
+        <v>1.266001919928401</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.137117061606305</v>
@@ -20474,7 +20210,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.263343441305796</v>
+        <v>1.249112220773249</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.132515115041208</v>
@@ -20563,7 +20299,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.265915697277918</v>
+        <v>1.244764891511715</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.129576764090254</v>
@@ -20652,7 +20388,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.267305964193857</v>
+        <v>1.254493712657535</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.114310028347854</v>
@@ -20741,7 +20477,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.261944841803734</v>
+        <v>1.248370549656108</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.142558170404989</v>
@@ -20830,7 +20566,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.252918642160517</v>
+        <v>1.243846018792579</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.226861429818351</v>
@@ -20919,7 +20655,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.23935322600819</v>
+        <v>1.232375871268005</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.233882853429442</v>
@@ -21008,7 +20744,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.253193307819474</v>
+        <v>1.252184682100732</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.058116661434295</v>
@@ -21097,7 +20833,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.25124135532165</v>
+        <v>1.252485856958606</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.227248412343984</v>
@@ -21186,7 +20922,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.234718748752739</v>
+        <v>1.233535924527144</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.192782847133276</v>
@@ -21275,7 +21011,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.251786542250591</v>
+        <v>1.249814659119969</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.224069866252953</v>
@@ -21364,7 +21100,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.263414733329732</v>
+        <v>1.251786169866921</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.242957867610405</v>
@@ -21453,7 +21189,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.24184903224565</v>
+        <v>1.235029745943024</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.969182314185748</v>
@@ -21542,7 +21278,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.241255882242021</v>
+        <v>1.234793961112373</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.14017052967989</v>
@@ -21631,7 +21367,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.240655210839942</v>
+        <v>1.232100326307892</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.211162426390349</v>
@@ -21720,7 +21456,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.245510222126809</v>
+        <v>1.23871027072654</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.035285954181928</v>
@@ -21809,7 +21545,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.259944989444892</v>
+        <v>1.250791306318999</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.265487385173639</v>
@@ -21898,7 +21634,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.260279899861395</v>
+        <v>1.249149358545014</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.067453321701341</v>
@@ -21987,7 +21723,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.263708449401356</v>
+        <v>1.250502240972195</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.18693569544367</v>
@@ -22076,7 +21812,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.259135252442736</v>
+        <v>1.250153600490546</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.198949883585007</v>
@@ -22165,7 +21901,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.27616988476198</v>
+        <v>1.266355630275654</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.185452032534512</v>
@@ -22254,7 +21990,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.28979346829419</v>
+        <v>1.275814874088309</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.092714497870947</v>
@@ -22343,7 +22079,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.297542787539414</v>
+        <v>1.274414377318399</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.266424762295395</v>
@@ -22432,7 +22168,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.274869540483912</v>
+        <v>1.265237201449565</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.119240023430837</v>
@@ -22521,7 +22257,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.274633826365829</v>
+        <v>1.26693982711764</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.059596708434287</v>
@@ -22610,7 +22346,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.273255657493783</v>
+        <v>1.270225270718462</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.209233206365673</v>
@@ -22699,7 +22435,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.286657169594511</v>
+        <v>1.28671527840989</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.975376352794231</v>
@@ -22788,7 +22524,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.26896730392286</v>
+        <v>1.273742124098701</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.283302512832333</v>
@@ -22877,7 +22613,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.272388694824158</v>
+        <v>1.278857342084161</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.208192158204032</v>
@@ -22966,7 +22702,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.264177441502476</v>
+        <v>1.267944825304698</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.305070099043499</v>
@@ -23055,7 +22791,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.260644059356816</v>
+        <v>1.26281559017755</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.349858493439312</v>
@@ -23144,7 +22880,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.246050464983952</v>
+        <v>1.248922732813653</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.387920138024314</v>
@@ -23233,7 +22969,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.254075518542709</v>
+        <v>1.248925416743922</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.392828837313018</v>
@@ -23322,7 +23058,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.235497678103752</v>
+        <v>1.225604580987814</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.440560212705869</v>
@@ -23411,7 +23147,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.241763113989244</v>
+        <v>1.223178290015188</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.377262621693428</v>
@@ -23500,7 +23236,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.23109638075115</v>
+        <v>1.207776152037212</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.42083070965759</v>
@@ -23589,7 +23325,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.242192413356752</v>
+        <v>1.21100634851894</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.327859176266678</v>
@@ -23678,7 +23414,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.249629927380145</v>
+        <v>1.211024626483074</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.117364266453459</v>
@@ -23767,7 +23503,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.246548879439435</v>
+        <v>1.199207748356411</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.565801862910863</v>
@@ -23856,7 +23592,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.253406083849487</v>
+        <v>1.194976809050061</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.474404608380041</v>
@@ -23945,7 +23681,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.244411767595894</v>
+        <v>1.181089018533069</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.617101461715096</v>
@@ -24034,7 +23770,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.240249920203223</v>
+        <v>1.170251452216653</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.552837913396631</v>
@@ -24123,7 +23859,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.246352361839371</v>
+        <v>1.16811081561599</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.602910225380447</v>
@@ -24212,7 +23948,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.257157849773026</v>
+        <v>1.170409146060119</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.767516249621412</v>
@@ -24301,7 +24037,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.258491670963062</v>
+        <v>1.16455945993531</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.835303717879697</v>
@@ -24390,7 +24126,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.265593093817028</v>
+        <v>1.168996754705451</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.621348386917013</v>
@@ -24479,7 +24215,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.273936598701159</v>
+        <v>1.174277713961092</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.68702820341639</v>
@@ -24568,7 +24304,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.294056646616633</v>
+        <v>1.185028044364861</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.756724201897832</v>
@@ -24657,7 +24393,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.309784505187762</v>
+        <v>1.193791973965153</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.77378458292155</v>
@@ -24746,7 +24482,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.308413008295786</v>
+        <v>1.191453936649613</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.712912125164889</v>
@@ -24835,7 +24571,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.322907309862971</v>
+        <v>1.198139949303539</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.719604752759933</v>
@@ -24924,7 +24660,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.320702111541655</v>
+        <v>1.198003454349746</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.521881973235161</v>
@@ -25013,7 +24749,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.319705803686067</v>
+        <v>1.194215622394564</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.943342465405631</v>
@@ -25102,7 +24838,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.335627183096455</v>
+        <v>1.204118626549857</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.708753015484556</v>
@@ -25191,7 +24927,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.354181253070425</v>
+        <v>1.216132375199838</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.620270782158739</v>
@@ -25280,7 +25016,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.35834871288462</v>
+        <v>1.221995126741632</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.652072607427721</v>
@@ -25369,7 +25105,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.377802706448819</v>
+        <v>1.24159208237885</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.62695149056947</v>
@@ -25458,7 +25194,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.393246184732615</v>
+        <v>1.253997560369756</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.698502882723267</v>
@@ -25547,7 +25283,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.399366349990833</v>
+        <v>1.261821996594764</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.534375375904568</v>
@@ -25636,7 +25372,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.391278852793679</v>
+        <v>1.264234915028001</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.80699216252814</v>
@@ -25725,7 +25461,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.378317368324088</v>
+        <v>1.254060365890957</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.878014325358937</v>
@@ -25814,7 +25550,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.348268003074865</v>
+        <v>1.231406706442697</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.69859120162109</v>
@@ -25903,7 +25639,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.330016456181603</v>
+        <v>1.222951232211247</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.52353134256622</v>
@@ -25992,7 +25728,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.315706308351676</v>
+        <v>1.213728186696178</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.881544002245048</v>
@@ -26081,7 +25817,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.316958401211463</v>
+        <v>1.217623075085742</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.75539694433757</v>
@@ -26170,7 +25906,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.294490027864054</v>
+        <v>1.209950821094107</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.428717159070575</v>
@@ -26259,7 +25995,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.281757922664377</v>
+        <v>1.201985260308863</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.225820883316309</v>
@@ -26348,7 +26084,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.275633540119437</v>
+        <v>1.200730731610294</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.221598254736727</v>
@@ -26437,7 +26173,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.242236539205957</v>
+        <v>1.181957770770174</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.425750755859785</v>
@@ -26526,7 +26262,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.224919824042077</v>
+        <v>1.168144637655192</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.299183464487127</v>
@@ -26812,7 +26548,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.540927345311608</v>
+        <v>1.468911213867043</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.912797118296242</v>
@@ -26901,7 +26637,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.551176378058651</v>
+        <v>1.480659674483313</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.992520991160116</v>
@@ -26990,7 +26726,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.56844968413054</v>
+        <v>1.487151327938952</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.521267694002302</v>
@@ -27079,7 +26815,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.604681273692505</v>
+        <v>1.516368599739143</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.690936017757879</v>
@@ -27168,7 +26904,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.620041958491474</v>
+        <v>1.520859374538496</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.341255572197841</v>
@@ -27257,7 +26993,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.627640592843556</v>
+        <v>1.528047740008951</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.801668276130415</v>
@@ -27346,7 +27082,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.618182605855093</v>
+        <v>1.528536733603656</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.925816481993778</v>
@@ -27435,7 +27171,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.59512220432514</v>
+        <v>1.5087471395876</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.437359065426231</v>
@@ -27524,7 +27260,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.606942682366926</v>
+        <v>1.516154583050149</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.659064910234558</v>
@@ -27613,7 +27349,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.599720794670865</v>
+        <v>1.504184905184641</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.534718896687423</v>
@@ -27702,7 +27438,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.61603378324588</v>
+        <v>1.519579378173627</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.729163457525154</v>
@@ -27791,7 +27527,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.61895749442407</v>
+        <v>1.517295073809949</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.562926592347376</v>
@@ -27880,7 +27616,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.60980441128474</v>
+        <v>1.513300507805501</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.517846254477728</v>
@@ -27969,7 +27705,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.614369931084285</v>
+        <v>1.519551493735538</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.514138886117494</v>
@@ -28058,7 +27794,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.619902744553335</v>
+        <v>1.520763815915046</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.594393443750249</v>
@@ -28147,7 +27883,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.619927824793696</v>
+        <v>1.516430403184123</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.40084531959478</v>
@@ -28236,7 +27972,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.615919314597842</v>
+        <v>1.513711819442662</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.641953962543814</v>
@@ -28325,7 +28061,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.611217291652989</v>
+        <v>1.517589678964147</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.600176963261593</v>
@@ -28414,7 +28150,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.589046516501461</v>
+        <v>1.498589205202416</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.665608460370178</v>
@@ -28503,7 +28239,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571681746609697</v>
+        <v>1.484727128579223</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.589037724469187</v>
@@ -28592,7 +28328,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.576825585337617</v>
+        <v>1.488684773706847</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.327081985413856</v>
@@ -28681,7 +28417,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.58141173845687</v>
+        <v>1.482363164516533</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.615934059410137</v>
@@ -28770,7 +28506,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602848013798133</v>
+        <v>1.497248679012548</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.59894811428625</v>
@@ -28859,7 +28595,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592021113625157</v>
+        <v>1.497414258675034</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.830117458187713</v>
@@ -28948,7 +28684,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.587835040492919</v>
+        <v>1.503823457420787</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.632804987088368</v>
@@ -29037,7 +28773,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.585900144605805</v>
+        <v>1.509176784188571</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.699070876413629</v>
@@ -29126,7 +28862,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.583769896435639</v>
+        <v>1.50721876763444</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.775052143390067</v>
@@ -29215,7 +28951,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.58818583180545</v>
+        <v>1.505282513458394</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.710444701596024</v>
@@ -29304,7 +29040,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.585645851283654</v>
+        <v>1.501076497100713</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.7872201380617</v>
@@ -29393,7 +29129,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.570277634183813</v>
+        <v>1.491467725913918</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.798575595926836</v>
@@ -29482,7 +29218,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.570379463110116</v>
+        <v>1.489493777758491</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.775696959243195</v>
@@ -29571,7 +29307,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.576682312495776</v>
+        <v>1.486429392166137</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.857835057385312</v>
@@ -29660,7 +29396,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.578150394560004</v>
+        <v>1.484540548252681</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.684574875621828</v>
@@ -29749,7 +29485,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.581443569332435</v>
+        <v>1.486227411272545</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.953871875454377</v>
@@ -29838,7 +29574,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.596512277165004</v>
+        <v>1.497891945996618</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.965323671794436</v>
@@ -29927,7 +29663,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.595162365800711</v>
+        <v>1.49602829380227</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.891348479178096</v>
@@ -30016,7 +29752,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.595300534318159</v>
+        <v>1.505545903420864</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.63546689283842</v>
@@ -30105,7 +29841,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.599569386452226</v>
+        <v>1.507444262860343</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.020137893613416</v>
@@ -30194,7 +29930,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.599990763890582</v>
+        <v>1.50676583857976</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.11054043201306</v>
@@ -30283,7 +30019,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.604757135144089</v>
+        <v>1.504612051598512</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.03154177797821</v>
@@ -30372,7 +30108,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60029802816432</v>
+        <v>1.501524689990422</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.960293551965534</v>
@@ -30461,7 +30197,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.60127082117384</v>
+        <v>1.512903980619777</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.899073431795234</v>
@@ -30550,7 +30286,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.607910051131167</v>
+        <v>1.520228002915935</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.95801348574123</v>
@@ -30639,7 +30375,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.611984714313797</v>
+        <v>1.529988917853725</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.883889840188034</v>
@@ -30728,7 +30464,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.632871072057155</v>
+        <v>1.544664404609399</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.020193359425071</v>
@@ -30817,7 +30553,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631503195887599</v>
+        <v>1.545831401627971</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.099286885406829</v>
@@ -30906,7 +30642,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.602584159102892</v>
+        <v>1.533268646790966</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.111231261979715</v>
@@ -30995,7 +30731,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600371511773327</v>
+        <v>1.534483020849736</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.856276706098998</v>
@@ -31084,7 +30820,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.628415921152252</v>
+        <v>1.553675365493963</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.943359352074257</v>
@@ -31173,7 +30909,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.624996020719249</v>
+        <v>1.554000241690354</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.736203949710118</v>
@@ -31262,7 +30998,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.62224045702704</v>
+        <v>1.554023736215924</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.870663988349149</v>
@@ -31351,7 +31087,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.613745079064211</v>
+        <v>1.546638437354213</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.911405119666072</v>
@@ -31440,7 +31176,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.612228703259963</v>
+        <v>1.548260568923605</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.908348665611859</v>
@@ -31529,7 +31265,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.62322708770408</v>
+        <v>1.555589103942273</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.609757752762955</v>
@@ -31618,7 +31354,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.620955242172825</v>
+        <v>1.548681294038167</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.786865147819684</v>
@@ -31707,7 +31443,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.617423448573261</v>
+        <v>1.543071465344195</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.054967608702374</v>
@@ -31796,7 +31532,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.612292130353809</v>
+        <v>1.5326010849246</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.011178732652252</v>
@@ -31885,7 +31621,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.611725086819608</v>
+        <v>1.530133386285235</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.801407694036176</v>
@@ -31974,7 +31710,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.607415653506205</v>
+        <v>1.523469446070098</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.826939013106131</v>
@@ -32063,7 +31799,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.603957883710803</v>
+        <v>1.522122333798477</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.911368040035744</v>
@@ -32152,7 +31888,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.608928031426034</v>
+        <v>1.524850186996746</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.007704317915962</v>
@@ -32241,7 +31977,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.613855135222601</v>
+        <v>1.525798564541305</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.883283736314298</v>
@@ -32330,7 +32066,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.608991753010012</v>
+        <v>1.522337604390481</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.869912822334333</v>
@@ -32419,7 +32155,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.585243074404638</v>
+        <v>1.501659979179065</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.019532356581489</v>
@@ -32508,7 +32244,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.574372111416918</v>
+        <v>1.489596555713545</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.74571283551407</v>
@@ -32597,7 +32333,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.55937683003887</v>
+        <v>1.470692907393337</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.948782171310769</v>
@@ -32686,7 +32422,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.557027417600222</v>
+        <v>1.472785112089301</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.762864026519492</v>
@@ -32775,7 +32511,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.554229792491221</v>
+        <v>1.465787799075396</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.90183016157597</v>
@@ -32864,7 +32600,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.551484354895499</v>
+        <v>1.463305802492004</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.909093339909506</v>
@@ -32953,7 +32689,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.554163215157875</v>
+        <v>1.464569129983946</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.79787029787367</v>
@@ -33042,7 +32778,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.557092925541264</v>
+        <v>1.47524981281927</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.060938172071143</v>
@@ -33131,7 +32867,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.561874944380581</v>
+        <v>1.477000490546729</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.769061897286973</v>
@@ -33220,7 +32956,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.566521893365843</v>
+        <v>1.488133418898874</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.66482683883609</v>
@@ -33309,7 +33045,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.570494854565569</v>
+        <v>1.493315182144594</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.079813158922435</v>
@@ -33398,7 +33134,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.569158857916336</v>
+        <v>1.489789714285346</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.860688655866322</v>
@@ -33487,7 +33223,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.56363825022373</v>
+        <v>1.491333617890239</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.923025922254917</v>
@@ -33576,7 +33312,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.560578831769436</v>
+        <v>1.492036411852729</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.53661934571382</v>
@@ -33665,7 +33401,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.545452442398327</v>
+        <v>1.484006341853302</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.728558393108734</v>
@@ -33754,7 +33490,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.554072651083386</v>
+        <v>1.493870225068827</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.093065367145605</v>
@@ -33843,7 +33579,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.553618702505876</v>
+        <v>1.494082649949206</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.994610194159387</v>
@@ -33932,7 +33668,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.576737625861516</v>
+        <v>1.517691553051219</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.08132990044933</v>
@@ -34021,7 +33757,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.578983506991649</v>
+        <v>1.51339930804248</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.058744269482534</v>
@@ -34110,7 +33846,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.588341547864352</v>
+        <v>1.524179658555398</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.183633770868725</v>
@@ -34199,7 +33935,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.58970368663023</v>
+        <v>1.526367833419418</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.209965784901235</v>
@@ -34288,7 +34024,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.597210543238498</v>
+        <v>1.529995931994927</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.712856405298387</v>
@@ -34377,7 +34113,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.592570761550682</v>
+        <v>1.519701500587696</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.12451144289974</v>
@@ -34466,7 +34202,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.58772606289023</v>
+        <v>1.516157640188034</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.069602930101571</v>
@@ -34752,7 +34488,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.571020408894</v>
+        <v>1.506140309171154</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.855237167188112</v>
@@ -34841,7 +34577,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565978460268749</v>
+        <v>1.503269844298337</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.98820738052824</v>
@@ -34930,7 +34666,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568427834521782</v>
+        <v>1.501197434422009</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.623328851620333</v>
@@ -35019,7 +34755,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.578351494804331</v>
+        <v>1.502154447329638</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.869702836699195</v>
@@ -35108,7 +34844,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.584652188026422</v>
+        <v>1.499163135225954</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.033364774656976</v>
@@ -35197,7 +34933,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.59729506730687</v>
+        <v>1.5135672889873</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.883741725759131</v>
@@ -35286,7 +35022,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.596019963260417</v>
+        <v>1.508733431470873</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.895704766593048</v>
@@ -35375,7 +35111,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.586549259533828</v>
+        <v>1.503124009485253</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.975668368720659</v>
@@ -35464,7 +35200,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.58696227280717</v>
+        <v>1.501024741099801</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.928904748977514</v>
@@ -35553,7 +35289,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.583240602845764</v>
+        <v>1.495958476071125</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.929388756360713</v>
@@ -35642,7 +35378,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.587426047153367</v>
+        <v>1.496050792476226</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.984099333683101</v>
@@ -35731,7 +35467,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.591548692100623</v>
+        <v>1.498547990818814</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.001862883356398</v>
@@ -35820,7 +35556,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.605951825386451</v>
+        <v>1.505399275087458</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.814635692989235</v>
@@ -35909,7 +35645,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.631064790342575</v>
+        <v>1.528712755284116</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.969539720897062</v>
@@ -35998,7 +35734,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.650012699853485</v>
+        <v>1.534252183080465</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.806731763390771</v>
@@ -36087,7 +35823,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.659587514200783</v>
+        <v>1.533779348709711</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.013807376364932</v>
@@ -36176,7 +35912,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.677371359788032</v>
+        <v>1.541177770464466</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.701642377580178</v>
@@ -36265,7 +36001,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.668341705413488</v>
+        <v>1.530740374365999</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.894173476714288</v>
@@ -36354,7 +36090,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.674356703582006</v>
+        <v>1.545010861960638</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.120449941936543</v>
@@ -36443,7 +36179,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.671068311167606</v>
+        <v>1.545321023784112</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.379765580244243</v>
@@ -36532,7 +36268,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.666282080093417</v>
+        <v>1.545132361850333</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.202917619419929</v>
@@ -36621,7 +36357,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.651782405886713</v>
+        <v>1.531683972587134</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.705730406531323</v>
@@ -36710,7 +36446,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.652923823923174</v>
+        <v>1.534188977992073</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.687199645435952</v>
@@ -36799,7 +36535,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.645767747863801</v>
+        <v>1.53499166647791</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.869801308043649</v>
@@ -36888,7 +36624,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.650333292341399</v>
+        <v>1.547946595466195</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.457605248377476</v>
@@ -36977,7 +36713,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.63624679932413</v>
+        <v>1.544604141376837</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.322986167191485</v>
@@ -37066,7 +36802,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.633316718123671</v>
+        <v>1.540133912960811</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.419536522008573</v>
@@ -37155,7 +36891,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.637994231903977</v>
+        <v>1.541163669719708</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.235208380525643</v>
@@ -37244,7 +36980,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.62936509485926</v>
+        <v>1.536240350342577</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.561186860002104</v>
@@ -37333,7 +37069,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.619727758651962</v>
+        <v>1.54024130898156</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.519934819665396</v>
@@ -37422,7 +37158,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.623872726942318</v>
+        <v>1.538890295575757</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.372207348019309</v>
@@ -37511,7 +37247,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618710341849961</v>
+        <v>1.535547046674739</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.341039378840839</v>
@@ -37600,7 +37336,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.616851611210355</v>
+        <v>1.534151839741407</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.124109030045476</v>
@@ -37689,7 +37425,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.615053979953454</v>
+        <v>1.529319458015319</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.399942264366572</v>
@@ -37778,7 +37514,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.620457669201991</v>
+        <v>1.533017799621002</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.232635378385915</v>
@@ -37867,7 +37603,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.631113379926684</v>
+        <v>1.535579883442732</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.545879740542766</v>
@@ -37956,7 +37692,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.640784082607019</v>
+        <v>1.542247732687512</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.34378556339177</v>
@@ -38045,7 +37781,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.638650199332026</v>
+        <v>1.536712873751118</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.451130069545371</v>
@@ -38134,7 +37870,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.63918110772464</v>
+        <v>1.528120282879847</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.366722323920517</v>
@@ -38223,7 +37959,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.640770041266734</v>
+        <v>1.520508216920722</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.008001291534057</v>
@@ -38312,7 +38048,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.648518495144899</v>
+        <v>1.530970037205809</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.727759396131704</v>
@@ -38401,7 +38137,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.654308913080838</v>
+        <v>1.535730999343969</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.735871263283918</v>
@@ -38490,7 +38226,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.652736719194071</v>
+        <v>1.535335944888935</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.724488510405098</v>
@@ -38579,7 +38315,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.65968441597835</v>
+        <v>1.538270520371926</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.305315989028396</v>
@@ -38668,7 +38404,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.666079348020115</v>
+        <v>1.539676345550676</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.410766913609806</v>
@@ -38757,7 +38493,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.653287431619862</v>
+        <v>1.536946621812596</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.351963760541136</v>
@@ -38846,7 +38582,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.647794274787191</v>
+        <v>1.534616497181422</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.236936246674336</v>
@@ -38935,7 +38671,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.654993775795672</v>
+        <v>1.539071360896891</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.72970817057948</v>
@@ -39024,7 +38760,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.661063964116955</v>
+        <v>1.538243598579612</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.949847826237646</v>
@@ -39113,7 +38849,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.651201973205096</v>
+        <v>1.531601312697277</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.635185038924002</v>
@@ -39202,7 +38938,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.643586976627617</v>
+        <v>1.525895427252943</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.614770837279202</v>
@@ -39291,7 +39027,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.651659724674766</v>
+        <v>1.534207696895368</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.287404807246664</v>
@@ -39380,7 +39116,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.648086197091595</v>
+        <v>1.529290020510077</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.412709950698552</v>
@@ -39469,7 +39205,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.670579433871118</v>
+        <v>1.550021091501731</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.639041350888116</v>
@@ -39558,7 +39294,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.665650568313693</v>
+        <v>1.541533358581849</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.423291885012187</v>
@@ -39647,7 +39383,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.654553092085435</v>
+        <v>1.526850892893947</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.46347484076474</v>
@@ -39736,7 +39472,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.657603787153065</v>
+        <v>1.524830136342244</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.512421957551236</v>
@@ -39825,7 +39561,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.66411748209104</v>
+        <v>1.531977954272632</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.345210866506554</v>
@@ -39914,7 +39650,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.65512667851843</v>
+        <v>1.531253961445525</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.471215567599458</v>
@@ -40003,7 +39739,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65493881905471</v>
+        <v>1.525441774592136</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.469295927043153</v>
@@ -40092,7 +39828,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.665865351411743</v>
+        <v>1.527168860386582</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.509675151150158</v>
@@ -40181,7 +39917,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.663570916517643</v>
+        <v>1.523027974931941</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.560089937725002</v>
@@ -40270,7 +40006,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.660736598016544</v>
+        <v>1.519775423661408</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.404619727542364</v>
@@ -40359,7 +40095,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.654449880032668</v>
+        <v>1.517868221618154</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.638554186720939</v>
@@ -40448,7 +40184,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.659239480952993</v>
+        <v>1.514724147234927</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.45983116190628</v>
@@ -40537,7 +40273,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.654002906966844</v>
+        <v>1.511275183644639</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.594243556792784</v>
@@ -40626,7 +40362,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.645501864288508</v>
+        <v>1.507336610914519</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.346531972726927</v>
@@ -40715,7 +40451,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.637423452563839</v>
+        <v>1.505889329498002</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.245396220840481</v>
@@ -40804,7 +40540,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.628775096026883</v>
+        <v>1.499076615770942</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.801188088354033</v>
@@ -40893,7 +40629,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.617484593175493</v>
+        <v>1.494615897743306</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.324887729348864</v>
@@ -40982,7 +40718,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.618718337076096</v>
+        <v>1.503129074356573</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.277981790554617</v>
@@ -41071,7 +40807,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.615523654913416</v>
+        <v>1.507635858564966</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.667993317427396</v>
@@ -41160,7 +40896,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.616184078573174</v>
+        <v>1.496807177214227</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.097641122704953</v>
@@ -41249,7 +40985,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.62625358231296</v>
+        <v>1.497756959077031</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.452215630770906</v>
@@ -41338,7 +41074,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.63898389279779</v>
+        <v>1.50544499215047</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.504194710470428</v>
@@ -41427,7 +41163,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.646497011242613</v>
+        <v>1.510250036583778</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.600625489942733</v>
@@ -41516,7 +41252,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.651798085590266</v>
+        <v>1.509360546949516</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.352469484957425</v>
@@ -41605,7 +41341,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.634319241234927</v>
+        <v>1.504124566726357</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.069730533151548</v>
@@ -41694,7 +41430,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.629475351580808</v>
+        <v>1.501940969468519</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.55518307567073</v>
@@ -41783,7 +41519,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.632291206200478</v>
+        <v>1.505963590475439</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.239708507216593</v>
@@ -41872,7 +41608,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.646863798687389</v>
+        <v>1.51983261601859</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.387091692005351</v>
@@ -41961,7 +41697,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.65341551724837</v>
+        <v>1.521727712087929</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.181137957085296</v>
@@ -42050,7 +41786,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.669598570809338</v>
+        <v>1.52520650714663</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.523693344353425</v>
@@ -42139,7 +41875,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.677544250345524</v>
+        <v>1.530625231818497</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.465218360328336</v>
@@ -42228,7 +41964,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.696503592782814</v>
+        <v>1.536332916402819</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.603522981480063</v>
@@ -42317,7 +42053,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.695297291712011</v>
+        <v>1.532498575299914</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.73221102695957</v>
@@ -42406,7 +42142,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.691730295465776</v>
+        <v>1.522297079764425</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.184157129172747</v>
@@ -42692,7 +42428,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.566816230485425</v>
+        <v>1.500167553620815</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.725521520015671</v>
@@ -42781,7 +42517,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.56713656769983</v>
+        <v>1.501729203435354</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.559417161758591</v>
@@ -42870,7 +42606,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.573442219945965</v>
+        <v>1.506400593179933</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.970004211543669</v>
@@ -42959,7 +42695,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.564922104048471</v>
+        <v>1.498885654735523</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.626126897966621</v>
@@ -43048,7 +42784,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.53227467085829</v>
+        <v>1.47948088707719</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.665685423068219</v>
@@ -43137,7 +42873,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.534695842193331</v>
+        <v>1.493387696418821</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.51189992016329</v>
@@ -43226,7 +42962,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.525132735839267</v>
+        <v>1.491253483206825</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.571449692387661</v>
@@ -43315,7 +43051,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.523980661881175</v>
+        <v>1.492373776314752</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.719796325860969</v>
@@ -43404,7 +43140,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.546742443436367</v>
+        <v>1.511869962658562</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.728295226470625</v>
@@ -43493,7 +43229,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.541759947064872</v>
+        <v>1.509886150836864</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.715909289705591</v>
@@ -43582,7 +43318,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.527580853341177</v>
+        <v>1.49913664476016</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.489947354548779</v>
@@ -43671,7 +43407,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.535097815082944</v>
+        <v>1.505216919473122</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.668930214705736</v>
@@ -43760,7 +43496,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.530563134037092</v>
+        <v>1.49108453372177</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.694651885333958</v>
@@ -43849,7 +43585,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.525658325064959</v>
+        <v>1.48888113390745</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.694704481929775</v>
@@ -43938,7 +43674,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.524067031492837</v>
+        <v>1.486083645408172</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.725547772401635</v>
@@ -44027,7 +43763,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.501776371702098</v>
+        <v>1.465937150707143</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.704607585284931</v>
@@ -44116,7 +43852,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.492364455963248</v>
+        <v>1.461587150125212</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.701162172134049</v>
@@ -44205,7 +43941,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.480892669965296</v>
+        <v>1.450673982557005</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.617870042377767</v>
@@ -44294,7 +44030,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.496728062530312</v>
+        <v>1.462805075012058</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.76404518860109</v>
@@ -44383,7 +44119,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.497689792483457</v>
+        <v>1.459877748693937</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.614648377698813</v>
@@ -44472,7 +44208,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.479918272006766</v>
+        <v>1.440737706874306</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.714314233575168</v>
@@ -44561,7 +44297,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.478844479412994</v>
+        <v>1.439490098838795</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.676478147475435</v>
@@ -44650,7 +44386,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.487032828985388</v>
+        <v>1.451172888373801</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.813447162091626</v>
@@ -44739,7 +44475,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.483695827026384</v>
+        <v>1.455522937163491</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.717025556997568</v>
@@ -44828,7 +44564,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.494103162451796</v>
+        <v>1.467337771002686</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.716879408343271</v>
@@ -44917,7 +44653,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.504070509721258</v>
+        <v>1.477996650263134</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.750531444557696</v>
@@ -45006,7 +44742,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.501555344863327</v>
+        <v>1.472253185219776</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.833843506036031</v>
@@ -45095,7 +44831,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.497380360851757</v>
+        <v>1.470984327394602</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.777875972603364</v>
@@ -45184,7 +44920,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.495310432154449</v>
+        <v>1.465496736839454</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.669211959927911</v>
@@ -45273,7 +45009,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.482391327648964</v>
+        <v>1.447360523162013</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.787785994150728</v>
@@ -45362,7 +45098,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.497950898661404</v>
+        <v>1.455378704556922</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.5183653238935</v>
@@ -45451,7 +45187,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.503297540204333</v>
+        <v>1.458319890125283</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.783704536864156</v>
@@ -45540,7 +45276,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.512774668701913</v>
+        <v>1.463394180574894</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.504751234058831</v>
@@ -45629,7 +45365,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.512692476915111</v>
+        <v>1.462375914061729</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.620250370148751</v>
@@ -45718,7 +45454,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.523616511997152</v>
+        <v>1.474197671959479</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.681551664723385</v>
@@ -45807,7 +45543,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.549522773423478</v>
+        <v>1.494044946542304</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.791110922594088</v>
@@ -45896,7 +45632,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.5520096466747</v>
+        <v>1.501191589300137</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.634386764127966</v>
@@ -45985,7 +45721,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.563685545477937</v>
+        <v>1.502062735366299</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.696767930860592</v>
@@ -46074,7 +45810,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.554618150635333</v>
+        <v>1.49118529053601</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.723782453768869</v>
@@ -46163,7 +45899,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.556332078423698</v>
+        <v>1.492010016414088</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.75668105731841</v>
@@ -46252,7 +45988,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.580734352666853</v>
+        <v>1.517715114739886</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.615666876126444</v>
@@ -46341,7 +46077,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.595019521631687</v>
+        <v>1.53841827605916</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.888308588807476</v>
@@ -46430,7 +46166,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.602910537265762</v>
+        <v>1.548733947346534</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.678341283351004</v>
@@ -46519,7 +46255,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.622565694535777</v>
+        <v>1.572700626569167</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.733844658178448</v>
@@ -46608,7 +46344,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.648693826695726</v>
+        <v>1.599173718808166</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.649499058113929</v>
@@ -46697,7 +46433,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.639916286455642</v>
+        <v>1.601732126779074</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.014314128793615</v>
@@ -46786,7 +46522,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.643119027514874</v>
+        <v>1.607310094518819</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.922567879703114</v>
@@ -46875,7 +46611,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.653187933762182</v>
+        <v>1.619500848358679</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.962322825250575</v>
@@ -46964,7 +46700,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.675607302053338</v>
+        <v>1.642920884222048</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.839864611158209</v>
@@ -47053,7 +46789,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.686507130061945</v>
+        <v>1.654013777212635</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.056187964512218</v>
@@ -47142,7 +46878,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.700861819208158</v>
+        <v>1.672320205261201</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.767167763210889</v>
@@ -47231,7 +46967,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.682892090483075</v>
+        <v>1.658275196799811</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.840076363023242</v>
@@ -47320,7 +47056,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.688102013229513</v>
+        <v>1.667834192988856</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.914900555844897</v>
@@ -47409,7 +47145,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.701455396149736</v>
+        <v>1.681919980019673</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.848643772824644</v>
@@ -47498,7 +47234,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.698000452441513</v>
+        <v>1.671257593898935</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.019333691438014</v>
@@ -47587,7 +47323,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.687250250912706</v>
+        <v>1.657676423661447</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.892138001912003</v>
@@ -47676,7 +47412,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.674900311321518</v>
+        <v>1.644250808338194</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.923768724787699</v>
@@ -47765,7 +47501,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.655463367101336</v>
+        <v>1.629724746006699</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.961710480164391</v>
@@ -47854,7 +47590,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.635012522593726</v>
+        <v>1.609912552599664</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.004000800951292</v>
@@ -47943,7 +47679,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.652464899113969</v>
+        <v>1.618895167896319</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.957417269008142</v>
@@ -48032,7 +47768,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.649796102849512</v>
+        <v>1.616790941648417</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.076088869099593</v>
@@ -48121,7 +47857,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.63971131397557</v>
+        <v>1.605931926841045</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.94916743926699</v>
@@ -48210,7 +47946,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.622513774642829</v>
+        <v>1.58575488852569</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.992215704887692</v>
@@ -48299,7 +48035,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.592025781731103</v>
+        <v>1.554882813165962</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.061051745517604</v>
@@ -48388,7 +48124,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.580510243457503</v>
+        <v>1.540924261986773</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.862856794663678</v>
@@ -48477,7 +48213,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.550360530415735</v>
+        <v>1.511255235817384</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.862042280226079</v>
@@ -48566,7 +48302,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.567168482729112</v>
+        <v>1.525194792884823</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.91358304765432</v>
@@ -48655,7 +48391,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.554413453271812</v>
+        <v>1.515190345975668</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.822042886324789</v>
@@ -48744,7 +48480,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.549601228539093</v>
+        <v>1.508710053794914</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.942837137426296</v>
@@ -48833,7 +48569,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.532988267456669</v>
+        <v>1.496647257474795</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.95048700044924</v>
@@ -48922,7 +48658,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.526936687207154</v>
+        <v>1.4956272081557</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.932385189762108</v>
@@ -49011,7 +48747,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.543659463144291</v>
+        <v>1.508903474425947</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.788254137961179</v>
@@ -49100,7 +48836,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.562655573392754</v>
+        <v>1.528046190420562</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.017872615086976</v>
@@ -49189,7 +48925,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.578981860973311</v>
+        <v>1.543077295441321</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.07126312442831</v>
@@ -49278,7 +49014,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.560474000711008</v>
+        <v>1.526084222019717</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.03512182055427</v>
@@ -49367,7 +49103,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.560568446196535</v>
+        <v>1.532215560323531</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.69602604197818</v>
@@ -49456,7 +49192,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.552649087986495</v>
+        <v>1.523948202190495</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.116660360785243</v>
@@ -49545,7 +49281,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.528119016981838</v>
+        <v>1.507421728963565</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.482977934261383</v>
@@ -49634,7 +49370,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.534381042751753</v>
+        <v>1.509155047844974</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.519352628693423</v>
@@ -49723,7 +49459,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.544652888854946</v>
+        <v>1.510933388297024</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.423971919503956</v>
@@ -49812,7 +49548,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.55919999559444</v>
+        <v>1.529750477889369</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.496912265321618</v>
@@ -49901,7 +49637,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.565455216604418</v>
+        <v>1.53435717211907</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.523349105399015</v>
@@ -49990,7 +49726,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.579656923917606</v>
+        <v>1.545662456113421</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.61907147878144</v>
@@ -50079,7 +49815,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.579325023462488</v>
+        <v>1.552609589340644</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.527594299091974</v>
@@ -50168,7 +49904,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.598184565089198</v>
+        <v>1.561558100255192</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.397876462713105</v>
@@ -50257,7 +49993,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.596144114656852</v>
+        <v>1.559524631303943</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.425920123498597</v>
@@ -50346,7 +50082,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.560656492359142</v>
+        <v>1.521911852859672</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.562043972173071</v>
@@ -50632,7 +50368,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.248368410939878</v>
+        <v>1.23320727610429</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.201538780248394</v>
@@ -50721,7 +50457,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.250274714171473</v>
+        <v>1.234447530005955</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.084908214953606</v>
@@ -50810,7 +50546,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.259404034419657</v>
+        <v>1.240841802671782</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.064268447551529</v>
@@ -50899,7 +50635,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.298346388091741</v>
+        <v>1.275469845755169</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.271234288594612</v>
@@ -50988,7 +50724,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.302531194000178</v>
+        <v>1.279536016398376</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.363794547879663</v>
@@ -51077,7 +50813,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.310264418666245</v>
+        <v>1.287389071911402</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.122581251641235</v>
@@ -51166,7 +50902,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.284187332161545</v>
+        <v>1.269262544423788</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.268747620390375</v>
@@ -51255,7 +50991,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.295906084268066</v>
+        <v>1.282238172179436</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.094286784051189</v>
@@ -51344,7 +51080,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.319719041117215</v>
+        <v>1.299885933183523</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.199136145067743</v>
@@ -51433,7 +51169,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.318469416548995</v>
+        <v>1.296364318774587</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.159926710875276</v>
@@ -51522,7 +51258,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.327375261618099</v>
+        <v>1.303128116640683</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.347976891884587</v>
@@ -51611,7 +51347,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.356341042572293</v>
+        <v>1.328541870049166</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.445143246381107</v>
@@ -51700,7 +51436,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.376060818344606</v>
+        <v>1.341610840876133</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.197987036696589</v>
@@ -51789,7 +51525,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.368783856137519</v>
+        <v>1.33472542267534</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.31319099642869</v>
@@ -51878,7 +51614,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.383618811547189</v>
+        <v>1.345544383927453</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.157027964019992</v>
@@ -51967,7 +51703,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.40530699601441</v>
+        <v>1.359728899332895</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.209128953743546</v>
@@ -52056,7 +51792,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.399989668926899</v>
+        <v>1.358743989150822</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.290768325994207</v>
@@ -52145,7 +51881,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.395748917680946</v>
+        <v>1.355978738003328</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.375352962302344</v>
@@ -52234,7 +51970,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.36387493532631</v>
+        <v>1.330188187137263</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.397400822767412</v>
@@ -52323,7 +52059,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.36471278875762</v>
+        <v>1.328970446960793</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.346542490937526</v>
@@ -52412,7 +52148,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.383709080739522</v>
+        <v>1.340475845360089</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.154986332758224</v>
@@ -52501,7 +52237,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.407943016512807</v>
+        <v>1.35805310220011</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.391333382361315</v>
@@ -52590,7 +52326,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.385655990279155</v>
+        <v>1.339401212904692</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.287450627758956</v>
@@ -52679,7 +52415,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.360642384950263</v>
+        <v>1.324664118876747</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.294132084485474</v>
@@ -52768,7 +52504,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.363327774055614</v>
+        <v>1.329520528678222</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.294920339685191</v>
@@ -52857,7 +52593,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.3489872274472</v>
+        <v>1.321224504733833</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.31515226191425</v>
@@ -52946,7 +52682,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.344187700988293</v>
+        <v>1.312431802889971</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.405017366219103</v>
@@ -53035,7 +52771,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.324209715660718</v>
+        <v>1.291532645881311</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.318719761649569</v>
@@ -53124,7 +52860,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.328692139326574</v>
+        <v>1.295407943492025</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.31717555396429</v>
@@ -53213,7 +52949,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.317540188995228</v>
+        <v>1.28230742670499</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.330004414478898</v>
@@ -53302,7 +53038,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.32913445882227</v>
+        <v>1.294566316953485</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.14011038857161</v>
@@ -53391,7 +53127,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.331399214368131</v>
+        <v>1.299306144833899</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.358717086459966</v>
@@ -53480,7 +53216,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.331349134826286</v>
+        <v>1.299361250630753</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.241078013720579</v>
@@ -53569,7 +53305,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.338262561544674</v>
+        <v>1.302003859705532</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.371332766555811</v>
@@ -53658,7 +53394,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.357621406615301</v>
+        <v>1.31818259405875</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.295822938198392</v>
@@ -53747,7 +53483,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.365906636128267</v>
+        <v>1.327160911065149</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.278499937338171</v>
@@ -53836,7 +53572,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.372152489902299</v>
+        <v>1.333901683352906</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.359423243655533</v>
@@ -53925,7 +53661,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.401259094281443</v>
+        <v>1.356480446654611</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.275468313472347</v>
@@ -54014,7 +53750,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.418584674610203</v>
+        <v>1.368123413899536</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.244499403192166</v>
@@ -54103,7 +53839,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.417548724336505</v>
+        <v>1.364673659260044</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.286180282520664</v>
@@ -54192,7 +53928,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.457848535319162</v>
+        <v>1.401015597492068</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.215915373658764</v>
@@ -54281,7 +54017,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.467390791230818</v>
+        <v>1.414974586445719</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.341898579850471</v>
@@ -54370,7 +54106,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.482635757200315</v>
+        <v>1.431822999652764</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.259148596109015</v>
@@ -54459,7 +54195,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.489650611627708</v>
+        <v>1.441971983581197</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.314235564784823</v>
@@ -54548,7 +54284,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.515997347819197</v>
+        <v>1.462264295938425</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.031767076575985</v>
@@ -54637,7 +54373,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.481424681821119</v>
+        <v>1.436043498232332</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.215769748528676</v>
@@ -54726,7 +54462,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.490152825964717</v>
+        <v>1.441878012946961</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.312371295385789</v>
@@ -54815,7 +54551,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.495191901475639</v>
+        <v>1.44801778999361</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.197432169336968</v>
@@ -54904,7 +54640,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.52934027430568</v>
+        <v>1.48265524994486</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.216934313030507</v>
@@ -54993,7 +54729,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.543232407587743</v>
+        <v>1.498149187168649</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.326272942962668</v>
@@ -55082,7 +54818,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.542809458179029</v>
+        <v>1.498169870963613</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.187954725630498</v>
@@ -55171,7 +54907,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.507716271893496</v>
+        <v>1.468160721309423</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.162976500109437</v>
@@ -55260,7 +54996,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.508212039864583</v>
+        <v>1.468698427818164</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.352625605110018</v>
@@ -55349,7 +55085,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.51170970399318</v>
+        <v>1.47489599743916</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.150010124187436</v>
@@ -55438,7 +55174,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.515301418971686</v>
+        <v>1.471852658714678</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.283091508502835</v>
@@ -55527,7 +55263,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.511005357415669</v>
+        <v>1.460883106416572</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.237305739998833</v>
@@ -55616,7 +55352,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.526379455131151</v>
+        <v>1.465981410193708</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.199307114732569</v>
@@ -55705,7 +55441,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.509134924030145</v>
+        <v>1.453514300518587</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.21372720609165</v>
@@ -55794,7 +55530,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.501006005052756</v>
+        <v>1.442692031267998</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.212074566391975</v>
@@ -55883,7 +55619,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.543062340314876</v>
+        <v>1.476085342877531</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.418490168485449</v>
@@ -55972,7 +55708,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.564702235681105</v>
+        <v>1.494907369785784</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.352015309823269</v>
@@ -56061,7 +55797,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.552829111601571</v>
+        <v>1.482339629827701</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.483487704999918</v>
@@ -56150,7 +55886,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.544172256263493</v>
+        <v>1.476923187094357</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.374764027377823</v>
@@ -56239,7 +55975,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.495836380328652</v>
+        <v>1.435045091335664</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.279292543393514</v>
@@ -56328,7 +56064,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.471764167460981</v>
+        <v>1.4076508516232</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.261696275957791</v>
@@ -56417,7 +56153,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.4250879242022</v>
+        <v>1.373086857364172</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.343631627370095</v>
@@ -56506,7 +56242,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.435010116609551</v>
+        <v>1.386640316382991</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.319907449357599</v>
@@ -56595,7 +56331,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.410657592288824</v>
+        <v>1.36689034956497</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.27798374682535</v>
@@ -56684,7 +56420,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.401552607279376</v>
+        <v>1.360190434320453</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.254986260907391</v>
@@ -56773,7 +56509,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.394361419675108</v>
+        <v>1.356635678962878</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.300799680934315</v>
@@ -56862,7 +56598,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.388248666471657</v>
+        <v>1.351826204091197</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.281883040970682</v>
@@ -56951,7 +56687,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.388534992909304</v>
+        <v>1.354287268531545</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.316618839295623</v>
@@ -57040,7 +56776,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.407040953047944</v>
+        <v>1.370232566338761</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.171716064824975</v>
@@ -57129,7 +56865,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.416676573820732</v>
+        <v>1.37678716160457</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.325695247118417</v>
@@ -57218,7 +56954,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.41223357368835</v>
+        <v>1.371874136709996</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.347648748213393</v>
@@ -57307,7 +57043,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.400972308903525</v>
+        <v>1.361631682804743</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.214429507228752</v>
@@ -57396,7 +57132,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.387453714180313</v>
+        <v>1.347691683760131</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.315280697956761</v>
@@ -57485,7 +57221,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.350864259732513</v>
+        <v>1.316112296272943</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.313150421614258</v>
@@ -57574,7 +57310,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.368290757528156</v>
+        <v>1.327029334998451</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.268212966733563</v>
@@ -57663,7 +57399,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.392792570493194</v>
+        <v>1.340267351501881</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.987456992380831</v>
@@ -57752,7 +57488,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.426943216000406</v>
+        <v>1.370833174604564</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.176501660164173</v>
@@ -57841,7 +57577,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.441289309830025</v>
+        <v>1.381249252096936</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.210705478179593</v>
@@ -57930,7 +57666,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.478332403031532</v>
+        <v>1.410052106609034</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.246185364444548</v>
@@ -58019,7 +57755,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.490051135408822</v>
+        <v>1.421668245877294</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.233398794644342</v>
@@ -58108,7 +57844,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.503787425680036</v>
+        <v>1.42993543327658</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.297633585044208</v>
@@ -58197,7 +57933,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.503330513027009</v>
+        <v>1.431058744011817</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.16686386080739</v>
@@ -58286,7 +58022,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.463558670737543</v>
+        <v>1.395927065156521</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.342623614917119</v>
